--- a/Document/SprintBurnDown.xlsx
+++ b/Document/SprintBurnDown.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chung1991/Desktop/WebEnterprise/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chung1991/Desktop/WebEnterprise/Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="460" windowWidth="23600" windowHeight="14680"/>
+    <workbookView xWindow="1220" yWindow="460" windowWidth="24380" windowHeight="14680"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 4" sheetId="1" r:id="rId1"/>
@@ -1034,19 +1034,19 @@
                   <c:v>510.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>408.0</c:v>
+                  <c:v>425.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>306.0</c:v>
+                  <c:v>340.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>204.0</c:v>
+                  <c:v>255.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>102.0</c:v>
+                  <c:v>170.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>85.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.0</c:v>
@@ -1091,20 +1091,20 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-5.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-5.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 4'!$D$38:$I$38</c:f>
+              <c:f>'Sprint 4'!$D$38:$J$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>510.0</c:v>
                 </c:pt>
@@ -1118,10 +1118,13 @@
                   <c:v>325.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>285.0</c:v>
+                  <c:v>245.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>285.0</c:v>
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1139,26 +1142,29 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 4'!$D$37:$I$37</c:f>
+              <c:f>'Sprint 4'!$D$37:$J$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>510.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>408.0</c:v>
+                  <c:v>425.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>306.0</c:v>
+                  <c:v>340.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>204.0</c:v>
+                  <c:v>255.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>102.0</c:v>
+                  <c:v>170.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1175,11 +1181,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2111714592"/>
-        <c:axId val="-2110554960"/>
+        <c:axId val="-2109124848"/>
+        <c:axId val="-2076484560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2111714592"/>
+        <c:axId val="-2109124848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1218,7 +1224,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2110554960"/>
+        <c:crossAx val="-2076484560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1226,7 +1232,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2110554960"/>
+        <c:axId val="-2076484560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1270,7 +1276,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2111714592"/>
+        <c:crossAx val="-2109124848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1346,19 +1352,19 @@
                   <c:v>510.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>408.0</c:v>
+                  <c:v>425.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>306.0</c:v>
+                  <c:v>340.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>204.0</c:v>
+                  <c:v>255.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>102.0</c:v>
+                  <c:v>170.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>85.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.0</c:v>
@@ -1403,10 +1409,10 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-5.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-5.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1430,58 +1436,58 @@
                   <c:v>325.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>285.0</c:v>
+                  <c:v>245.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>285.0</c:v>
+                  <c:v>160.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>285.0</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>285.0</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>285.0</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>285.0</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>285.0</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>285.0</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>285.0</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>285.0</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>285.0</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>285.0</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>285.0</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>285.0</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>285.0</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>285.0</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>285.0</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>285.0</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1507,19 +1513,19 @@
                   <c:v>510.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>408.0</c:v>
+                  <c:v>425.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>306.0</c:v>
+                  <c:v>340.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>204.0</c:v>
+                  <c:v>255.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>102.0</c:v>
+                  <c:v>170.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>85.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.0</c:v>
@@ -1564,10 +1570,10 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-5.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-5.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1583,11 +1589,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2111689040"/>
-        <c:axId val="-2111683856"/>
+        <c:axId val="-2109021296"/>
+        <c:axId val="-2109016112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2111689040"/>
+        <c:axId val="-2109021296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1625,7 +1631,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2111683856"/>
+        <c:crossAx val="-2109016112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1633,7 +1639,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2111683856"/>
+        <c:axId val="-2109016112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1676,7 +1682,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2111689040"/>
+        <c:crossAx val="-2109021296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2035,10 +2041,10 @@
   <dimension ref="A1:BM101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I37" sqref="I37"/>
+      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2429,12 +2435,15 @@
       </c>
       <c r="D5" s="8">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
+      <c r="I5">
+        <v>30</v>
+      </c>
       <c r="BM5" s="17"/>
     </row>
     <row r="6" spans="1:65" ht="13" x14ac:dyDescent="0.15">
@@ -2515,12 +2524,15 @@
       </c>
       <c r="D9" s="8">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9">
         <v>5</v>
       </c>
+      <c r="I9">
+        <v>15</v>
+      </c>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
       <c r="BM9" s="17"/>
@@ -2582,12 +2594,15 @@
       </c>
       <c r="D12" s="8">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E12" s="15"/>
       <c r="H12">
         <v>40</v>
       </c>
+      <c r="I12">
+        <v>40</v>
+      </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
       <c r="BM12" s="17"/>
@@ -2605,9 +2620,12 @@
       </c>
       <c r="D13" s="8">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="J13">
         <v>40</v>
       </c>
-      <c r="E13" s="15"/>
       <c r="Q13" s="16"/>
       <c r="BM13" s="17"/>
     </row>
@@ -2644,9 +2662,12 @@
       </c>
       <c r="D15" s="8">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="H15">
         <v>20</v>
       </c>
-      <c r="E15" s="15"/>
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
       <c r="T15" s="16"/>
@@ -2666,9 +2687,12 @@
       </c>
       <c r="D16" s="8">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="H16">
         <v>20</v>
       </c>
-      <c r="E16" s="15"/>
       <c r="R16" s="16"/>
       <c r="U16" s="16"/>
       <c r="V16" s="16"/>
@@ -3010,7 +3034,7 @@
       </c>
       <c r="D35" s="27">
         <f t="shared" si="2"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="E35" s="28">
         <f t="shared" ref="E35:BM35" si="3">SUM(E3:E19)</f>
@@ -3026,15 +3050,15 @@
       </c>
       <c r="H35" s="28">
         <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="I35" s="28">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="J35" s="28">
+        <f t="shared" si="3"/>
         <v>40</v>
-      </c>
-      <c r="I35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
       <c r="K35" s="28">
         <f t="shared" si="3"/>
@@ -3263,27 +3287,27 @@
       </c>
       <c r="B36" s="30">
         <f>B35-SUM(E36:BL36)</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="C36" s="31"/>
       <c r="D36" s="32"/>
       <c r="E36" s="33">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="F36" s="34">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="G36" s="34">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="H36" s="34">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="I36" s="34">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="J36" s="34">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="K36" s="34">
         <v>0</v>
@@ -3325,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="34">
         <v>0</v>
@@ -3385,23 +3409,23 @@
       </c>
       <c r="E37" s="41">
         <f t="shared" ref="E37:BM37" si="4">D37-E36</f>
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="F37" s="41">
         <f t="shared" si="4"/>
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="G37" s="41">
         <f t="shared" si="4"/>
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="H37" s="41">
         <f t="shared" si="4"/>
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="I37" s="41">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J37" s="41">
         <f t="shared" si="4"/>
@@ -3461,171 +3485,171 @@
       </c>
       <c r="X37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Z37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AA37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AB37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AC37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AD37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AE37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AF37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AG37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AH37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AI37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AJ37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AK37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AL37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AN37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AO37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AP37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AQ37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AR37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AS37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AT37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AU37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AV37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AW37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AX37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AY37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AZ37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="BA37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="BB37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="BC37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="BD37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="BE37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="BF37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="BG37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="BH37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="BI37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="BJ37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="BK37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="BL37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="BM37" s="42">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:65" ht="13" x14ac:dyDescent="0.15">
@@ -3654,235 +3678,235 @@
       </c>
       <c r="H38" s="40">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="I38" s="40">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>160</v>
       </c>
       <c r="J38" s="40">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="K38" s="40">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="L38" s="40">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="M38" s="40">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="N38" s="40">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="O38" s="40">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="P38" s="40">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="Q38" s="40">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="R38" s="40">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="S38" s="40">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="T38" s="40">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="U38" s="40">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="V38" s="40">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="W38" s="40">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="X38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="Y38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="Z38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="AA38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="AB38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="AC38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="AD38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="AE38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="AF38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="AG38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="AH38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="AI38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="AJ38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="AK38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="AL38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="AM38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="AN38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="AO38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="AP38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="AQ38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="AR38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="AS38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="AT38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="AU38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="AV38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="AW38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="AX38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="AY38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="AZ38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="BA38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="BB38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="BC38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="BD38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="BE38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="BF38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="BG38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="BH38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="BI38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="BJ38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="BK38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="BL38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="BM38" s="38">
         <f t="shared" si="5"/>
-        <v>285</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:65" ht="18" x14ac:dyDescent="0.2">

--- a/Document/SprintBurnDown.xlsx
+++ b/Document/SprintBurnDown.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="460" windowWidth="24380" windowHeight="14680"/>
+    <workbookView xWindow="1220" yWindow="460" windowWidth="24380" windowHeight="14680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 4" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint 5" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>Task</t>
   </si>
@@ -37,51 +37,6 @@
   </si>
   <si>
     <t>Time (left)</t>
-  </si>
-  <si>
-    <t>Team documentation</t>
-  </si>
-  <si>
-    <t>Wireframing</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>Design</t>
-  </si>
-  <si>
-    <t>HTML/CSS</t>
-  </si>
-  <si>
-    <t>Theme development</t>
-  </si>
-  <si>
-    <t>Server setup</t>
-  </si>
-  <si>
-    <t>Testing 1</t>
-  </si>
-  <si>
-    <t>Bug fixes</t>
-  </si>
-  <si>
-    <t>Optimization</t>
-  </si>
-  <si>
-    <t>Content</t>
-  </si>
-  <si>
-    <t>SEO</t>
-  </si>
-  <si>
-    <t>User documentation</t>
-  </si>
-  <si>
-    <t>Go live</t>
-  </si>
-  <si>
-    <t>Testing 2</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -151,6 +106,21 @@
   </si>
   <si>
     <t xml:space="preserve">DLT/PVC can view CMR </t>
+  </si>
+  <si>
+    <t>Create job to auto reject overdate report daily</t>
+  </si>
+  <si>
+    <t>DLT comment CMR</t>
+  </si>
+  <si>
+    <t>DLT/PVC can view CMR</t>
+  </si>
+  <si>
+    <t>View circle chart in CMR details page</t>
+  </si>
+  <si>
+    <t>Edit create CMR page</t>
   </si>
 </sst>
 </file>
@@ -583,7 +553,397 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="48">
+    <dxf>
+      <font>
+        <color rgb="FF003366"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF003366"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF800000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF800000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF800000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF800000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF800000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF800000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF800000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE69999"/>
+          <bgColor rgb="FFE69999"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF800000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE69999"/>
+          <bgColor rgb="FFE69999"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFADCB3"/>
+          <bgColor rgb="FFFADCB3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFADCB3"/>
+          <bgColor rgb="FFFADCB3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC00"/>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC00"/>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF003366"/>
@@ -1181,11 +1541,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2109124848"/>
-        <c:axId val="-2076484560"/>
+        <c:axId val="2132289056"/>
+        <c:axId val="2137763376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2109124848"/>
+        <c:axId val="2132289056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1224,7 +1584,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2076484560"/>
+        <c:crossAx val="2137763376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1232,7 +1592,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2076484560"/>
+        <c:axId val="2137763376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1276,7 +1636,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2109124848"/>
+        <c:crossAx val="2132289056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1589,11 +1949,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2109021296"/>
-        <c:axId val="-2109016112"/>
+        <c:axId val="-2073637216"/>
+        <c:axId val="-2126598432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2109021296"/>
+        <c:axId val="-2073637216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1615,6 +1975,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1631,7 +1992,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2109016112"/>
+        <c:crossAx val="-2126598432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1639,7 +2000,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2109016112"/>
+        <c:axId val="-2126598432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1661,6 +2022,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1682,13 +2044,332 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2109021296"/>
+        <c:crossAx val="-2073637216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 4'!$C$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Burnout</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="3D85C6"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 4'!$D$37:$AC$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>510.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>425.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>340.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>255.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 4'!$D$38:$J$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>510.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>490.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>375.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>325.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>245.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Estimate</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 4'!$D$37:$J$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>510.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>425.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>340.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>255.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2136710400"/>
+        <c:axId val="2130897952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2136710400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Days in Calendar</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2130897952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2130897952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hours left</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2136710400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1767,6 +2448,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2040,11 +2753,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2325,7 +3038,7 @@
     </row>
     <row r="3" spans="1:65" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -2402,7 +3115,7 @@
     </row>
     <row r="4" spans="1:65" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B4" s="14">
         <v>30</v>
@@ -2424,7 +3137,7 @@
     </row>
     <row r="5" spans="1:65" ht="26" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B5" s="14">
         <v>30</v>
@@ -2448,7 +3161,7 @@
     </row>
     <row r="6" spans="1:65" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B6" s="14">
         <v>10</v>
@@ -2467,7 +3180,7 @@
     </row>
     <row r="7" spans="1:65" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B7" s="14">
         <v>50</v>
@@ -2487,7 +3200,7 @@
     </row>
     <row r="8" spans="1:65" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B8" s="14">
         <v>130</v>
@@ -2513,7 +3226,7 @@
     </row>
     <row r="9" spans="1:65" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="13" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B9" s="14">
         <v>20</v>
@@ -2539,7 +3252,7 @@
     </row>
     <row r="10" spans="1:65" ht="39" x14ac:dyDescent="0.15">
       <c r="A10" s="13" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B10" s="14">
         <v>10</v>
@@ -2561,7 +3274,7 @@
     </row>
     <row r="11" spans="1:65" ht="26" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B11" s="14">
         <v>10</v>
@@ -2583,7 +3296,7 @@
     </row>
     <row r="12" spans="1:65" ht="26" x14ac:dyDescent="0.15">
       <c r="A12" s="18" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B12" s="14">
         <v>80</v>
@@ -2609,7 +3322,7 @@
     </row>
     <row r="13" spans="1:65" ht="26" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B13" s="14">
         <v>40</v>
@@ -2631,7 +3344,7 @@
     </row>
     <row r="14" spans="1:65" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B14" s="14">
         <v>30</v>
@@ -2651,7 +3364,7 @@
     </row>
     <row r="15" spans="1:65" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="13" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B15" s="14">
         <v>20</v>
@@ -2676,7 +3389,7 @@
     </row>
     <row r="16" spans="1:65" ht="26" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B16" s="14">
         <v>20</v>
@@ -2702,7 +3415,7 @@
     </row>
     <row r="17" spans="1:65" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="18" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B17" s="14">
         <v>30</v>
@@ -3022,7 +3735,7 @@
     </row>
     <row r="35" spans="1:65" ht="13" x14ac:dyDescent="0.15">
       <c r="A35" s="25" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B35" s="26">
         <f t="shared" ref="B35:D35" si="2">SUM(B3:B34)</f>
@@ -3283,7 +3996,7 @@
     </row>
     <row r="36" spans="1:65" ht="16" x14ac:dyDescent="0.15">
       <c r="A36" s="29" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B36" s="30">
         <f>B35-SUM(E36:BL36)</f>
@@ -3397,11 +4110,11 @@
     </row>
     <row r="37" spans="1:65" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="37" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B37" s="38"/>
       <c r="C37" s="39" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D37" s="40">
         <f>B35</f>
@@ -3654,11 +4367,11 @@
     </row>
     <row r="38" spans="1:65" ht="13" x14ac:dyDescent="0.15">
       <c r="A38" s="37" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B38" s="38"/>
       <c r="C38" s="39" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D38" s="40">
         <f>C35</f>
@@ -3911,7 +4624,7 @@
     </row>
     <row r="39" spans="1:65" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="46" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B39" s="47"/>
       <c r="C39" s="47"/>
@@ -3979,7 +4692,7 @@
     </row>
     <row r="40" spans="1:65" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="48" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B40" s="47"/>
       <c r="C40" s="47"/>
@@ -4234,62 +4947,62 @@
     <mergeCell ref="A40:D40"/>
   </mergeCells>
   <conditionalFormatting sqref="A37:BM38">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:BM34">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D34">
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="9" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="10" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D34">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D34">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4305,8 +5018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM101"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4586,30 +5299,24 @@
       <c r="BL2" s="3"/>
       <c r="BM2" s="3"/>
     </row>
-    <row r="3" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:65" ht="26" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="6">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C3" s="7">
         <f t="shared" ref="C3:C34" si="0">IF(B3&lt;SUM(E3:BL3),SUM(E3:BL3),B3)</f>
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D3" s="8">
         <f t="shared" ref="D3:D34" si="1">IF(C3&gt;B3,$C3-(SUM($E3:$BM3)),$B3-(SUM($E3:$BM3)))</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="9">
-        <v>4</v>
-      </c>
-      <c r="F3" s="11">
-        <v>1</v>
-      </c>
-      <c r="G3" s="11">
-        <v>1</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -4671,377 +5378,278 @@
     </row>
     <row r="4" spans="1:65" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="18" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B4" s="19">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4" s="7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D4" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E4" s="15"/>
-      <c r="F4" s="16">
-        <v>3</v>
-      </c>
-      <c r="G4" s="16">
-        <v>1</v>
-      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
       <c r="BM4" s="17"/>
     </row>
     <row r="5" spans="1:65" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B5" s="19">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C5" s="7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D5" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E5" s="15"/>
-      <c r="F5" s="16">
-        <v>8</v>
-      </c>
-      <c r="G5" s="16">
-        <v>2</v>
-      </c>
-      <c r="H5" s="16">
-        <v>1</v>
-      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
       <c r="BM5" s="17"/>
     </row>
     <row r="6" spans="1:65" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B6" s="19">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E6" s="15"/>
-      <c r="H6" s="16">
-        <v>3</v>
-      </c>
+      <c r="H6" s="16"/>
       <c r="BM6" s="17"/>
     </row>
-    <row r="7" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:65" ht="26" x14ac:dyDescent="0.15">
       <c r="A7" s="18" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B7" s="19">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E7" s="15"/>
-      <c r="I7" s="16">
-        <v>4</v>
-      </c>
-      <c r="J7" s="16">
-        <v>4</v>
-      </c>
+      <c r="F7" s="45">
+        <v>80</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
       <c r="BM7" s="17"/>
     </row>
     <row r="8" spans="1:65" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B8" s="19">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="K8" s="16">
-        <v>6</v>
-      </c>
-      <c r="L8" s="16">
-        <v>2</v>
-      </c>
+      <c r="E8" s="15">
+        <v>30</v>
+      </c>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
       <c r="BM8" s="17"/>
     </row>
     <row r="9" spans="1:65" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B9" s="19">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="L9" s="16">
-        <v>4</v>
-      </c>
-      <c r="M9" s="16">
-        <v>8</v>
-      </c>
+      <c r="E9" s="15">
+        <v>30</v>
+      </c>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
       <c r="BM9" s="17"/>
     </row>
     <row r="10" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="19">
-        <v>4</v>
-      </c>
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D10" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(C10&gt;B10,$C10-(SUM($E10:$BM10)),$B10-(SUM($E10:$BM10)))</f>
         <v>0</v>
       </c>
       <c r="E10" s="15"/>
-      <c r="N10" s="16">
-        <v>2</v>
-      </c>
-      <c r="O10" s="16">
-        <v>2</v>
-      </c>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
       <c r="BM10" s="17"/>
     </row>
     <row r="11" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="19">
-        <v>3</v>
-      </c>
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E11" s="15"/>
-      <c r="O11" s="16">
-        <v>2</v>
-      </c>
-      <c r="P11" s="16">
-        <v>1</v>
-      </c>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
       <c r="BM11" s="17"/>
     </row>
     <row r="12" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="19">
-        <v>4</v>
-      </c>
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D12" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E12" s="15"/>
-      <c r="P12" s="16">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="16">
-        <v>1</v>
-      </c>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
       <c r="BM12" s="17"/>
     </row>
     <row r="13" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="19">
-        <v>4</v>
-      </c>
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D13" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E13" s="15"/>
-      <c r="Q13" s="16">
-        <v>4</v>
-      </c>
+      <c r="Q13" s="16"/>
       <c r="BM13" s="17"/>
     </row>
     <row r="14" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="19">
-        <v>5</v>
-      </c>
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D14" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E14" s="15"/>
-      <c r="R14" s="16">
-        <v>3</v>
-      </c>
-      <c r="S14" s="16">
-        <v>3</v>
-      </c>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
       <c r="BM14" s="17"/>
     </row>
     <row r="15" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A15" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="19">
-        <v>10</v>
-      </c>
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D15" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E15" s="15"/>
-      <c r="R15" s="16">
-        <v>2</v>
-      </c>
-      <c r="S15" s="16">
-        <v>1</v>
-      </c>
-      <c r="T15" s="16">
-        <v>4</v>
-      </c>
-      <c r="U15" s="16">
-        <v>3</v>
-      </c>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
       <c r="BM15" s="17"/>
     </row>
     <row r="16" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A16" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="19">
-        <v>8</v>
-      </c>
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D16" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E16" s="15"/>
-      <c r="R16" s="16">
-        <v>1</v>
-      </c>
-      <c r="U16" s="16">
-        <v>2</v>
-      </c>
-      <c r="V16" s="16">
-        <v>3</v>
-      </c>
-      <c r="W16" s="16">
-        <v>1</v>
-      </c>
-      <c r="X16" s="16">
-        <v>1</v>
-      </c>
+      <c r="R16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
       <c r="BM16" s="17"/>
     </row>
     <row r="17" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A17" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="19">
-        <v>2</v>
-      </c>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E17" s="15"/>
-      <c r="V17" s="16">
-        <v>1</v>
-      </c>
-      <c r="W17" s="16">
-        <v>1</v>
-      </c>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
       <c r="BM17" s="17"/>
     </row>
     <row r="18" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A18" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="19">
-        <v>5</v>
-      </c>
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="7">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D18" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E18" s="15"/>
-      <c r="V18" s="16">
-        <v>1</v>
-      </c>
-      <c r="W18" s="16">
-        <v>1</v>
-      </c>
-      <c r="X18" s="16">
-        <v>3</v>
-      </c>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
       <c r="BM18" s="17"/>
     </row>
     <row r="19" spans="1:65" ht="13" x14ac:dyDescent="0.15">
@@ -5329,99 +5937,99 @@
     </row>
     <row r="35" spans="1:65" ht="13" x14ac:dyDescent="0.15">
       <c r="A35" s="25" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B35" s="26">
         <f t="shared" ref="B35:D35" si="2">SUM(B3:B34)</f>
-        <v>88</v>
+        <v>320</v>
       </c>
       <c r="C35" s="27">
         <f t="shared" si="2"/>
-        <v>99</v>
+        <v>320</v>
       </c>
       <c r="D35" s="27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E35" s="28">
         <f t="shared" ref="E35:BM35" si="3">SUM(E3:E19)</f>
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="F35" s="28">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="G35" s="28">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H35" s="28">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I35" s="28">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J35" s="28">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K35" s="28">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L35" s="28">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M35" s="28">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N35" s="28">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O35" s="28">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P35" s="28">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="28">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R35" s="28">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S35" s="28">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T35" s="28">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U35" s="28">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V35" s="28">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W35" s="28">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X35" s="28">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="28">
         <f t="shared" si="3"/>
@@ -5590,7 +6198,7 @@
     </row>
     <row r="36" spans="1:65" ht="16" x14ac:dyDescent="0.15">
       <c r="A36" s="29" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B36" s="30">
         <f>B35-SUM(E36:BL36)</f>
@@ -5599,64 +6207,64 @@
       <c r="C36" s="31"/>
       <c r="D36" s="32"/>
       <c r="E36" s="33">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="F36" s="35">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="G36" s="35">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="H36" s="35">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="I36" s="35">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="J36" s="35">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="K36" s="35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L36" s="35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M36" s="35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N36" s="35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O36" s="35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P36" s="35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R36" s="35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S36" s="35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T36" s="35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U36" s="35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V36" s="35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W36" s="35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X36" s="35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="35">
         <v>0</v>
@@ -5704,91 +6312,91 @@
     </row>
     <row r="37" spans="1:65" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="37" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B37" s="40"/>
       <c r="C37" s="39" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D37" s="40">
         <f>B35</f>
-        <v>88</v>
+        <v>320</v>
       </c>
       <c r="E37" s="42">
         <f t="shared" ref="E37:BM37" si="4">D37-E36</f>
-        <v>83</v>
+        <v>266</v>
       </c>
       <c r="F37" s="42">
         <f t="shared" si="4"/>
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="G37" s="42">
         <f t="shared" si="4"/>
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="H37" s="42">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="I37" s="42">
         <f t="shared" si="4"/>
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="J37" s="42">
         <f t="shared" si="4"/>
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="K37" s="42">
         <f t="shared" si="4"/>
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="L37" s="42">
         <f t="shared" si="4"/>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="M37" s="42">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="N37" s="42">
         <f t="shared" si="4"/>
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="O37" s="42">
         <f t="shared" si="4"/>
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="P37" s="42">
         <f t="shared" si="4"/>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="42">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="R37" s="42">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="S37" s="42">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="T37" s="42">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="U37" s="42">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="V37" s="42">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="W37" s="42">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X37" s="42">
         <f t="shared" si="4"/>
@@ -5961,264 +6569,264 @@
     </row>
     <row r="38" spans="1:65" ht="13" x14ac:dyDescent="0.15">
       <c r="A38" s="37" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B38" s="40"/>
       <c r="C38" s="39" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D38" s="40">
         <f>C35</f>
-        <v>99</v>
+        <v>320</v>
       </c>
       <c r="E38" s="40">
         <f>$C$35-SUM(E$3:E$34)</f>
-        <v>95</v>
+        <v>260</v>
       </c>
       <c r="F38" s="40">
         <f t="shared" ref="F38:BM38" si="5">E38-SUM(F3:F34)</f>
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="G38" s="40">
         <f t="shared" si="5"/>
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="H38" s="40">
         <f t="shared" si="5"/>
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="I38" s="40">
         <f t="shared" si="5"/>
-        <v>71</v>
+        <v>180</v>
       </c>
       <c r="J38" s="40">
         <f t="shared" si="5"/>
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="K38" s="40">
         <f t="shared" si="5"/>
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="L38" s="40">
         <f t="shared" si="5"/>
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="M38" s="40">
         <f t="shared" si="5"/>
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="N38" s="40">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="O38" s="40">
         <f t="shared" si="5"/>
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="P38" s="40">
         <f t="shared" si="5"/>
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="Q38" s="40">
         <f t="shared" si="5"/>
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="R38" s="40">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="S38" s="40">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="T38" s="40">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="U38" s="40">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="V38" s="40">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>180</v>
       </c>
       <c r="W38" s="40">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="X38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="Y38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="Z38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AA38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AB38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AC38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AD38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AE38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AF38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AG38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AH38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AI38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AJ38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AK38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AL38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AM38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AO38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AP38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AQ38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AR38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AS38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AT38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AU38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AV38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AW38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AX38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AY38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AZ38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="BA38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="BB38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="BC38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="BD38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="BE38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="BF38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="BG38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="BH38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="BI38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="BJ38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="BK38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="BL38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="BM38" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:65" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="46" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B39" s="47"/>
       <c r="C39" s="47"/>
@@ -6286,7 +6894,7 @@
     </row>
     <row r="40" spans="1:65" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="48" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B40" s="47"/>
       <c r="C40" s="47"/>
@@ -6541,62 +7149,62 @@
     <mergeCell ref="A40:D40"/>
   </mergeCells>
   <conditionalFormatting sqref="A37:BM38">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:BM34">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D34">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D34">
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D34">
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Document/SprintBurnDown.xlsx
+++ b/Document/SprintBurnDown.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>Task</t>
   </si>
@@ -121,6 +121,27 @@
   </si>
   <si>
     <t>Edit create CMR page</t>
+  </si>
+  <si>
+    <t>View number of Active/Pending/Reported in course list</t>
+  </si>
+  <si>
+    <t>Course can be cancel</t>
+  </si>
+  <si>
+    <t>Commit latest code of Linh</t>
+  </si>
+  <si>
+    <t>Edit display of table without records</t>
+  </si>
+  <si>
+    <t>Edit Logic of Delete Users</t>
+  </si>
+  <si>
+    <t>Table is not responsive</t>
+  </si>
+  <si>
+    <t>Insert 2 users of 2 role DLT &amp; PVC</t>
   </si>
 </sst>
 </file>
@@ -553,397 +574,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
-    <dxf>
-      <font>
-        <color rgb="FF003366"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF003366"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF008000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF008000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF800000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF800000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF800000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF800000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF800000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF800000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF800000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE69999"/>
-          <bgColor rgb="FFE69999"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF800000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE69999"/>
-          <bgColor rgb="FFE69999"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF6600"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFADCB3"/>
-          <bgColor rgb="FFFADCB3"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF6600"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFADCB3"/>
-          <bgColor rgb="FFFADCB3"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFCC00"/>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFCC00"/>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF008000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF008000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF008000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF008000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF008000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF008000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF008000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF008000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <font>
         <color rgb="FF003366"/>
@@ -1541,11 +1172,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2132289056"/>
-        <c:axId val="2137763376"/>
+        <c:axId val="-2107263744"/>
+        <c:axId val="2103342032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2132289056"/>
+        <c:axId val="-2107263744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1584,7 +1215,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137763376"/>
+        <c:crossAx val="2103342032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1592,7 +1223,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137763376"/>
+        <c:axId val="2103342032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1636,7 +1267,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2132289056"/>
+        <c:crossAx val="-2107263744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1949,11 +1580,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2073637216"/>
-        <c:axId val="-2126598432"/>
+        <c:axId val="2143404736"/>
+        <c:axId val="-2108513712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2073637216"/>
+        <c:axId val="2143404736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1992,7 +1623,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2126598432"/>
+        <c:crossAx val="-2108513712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2000,7 +1631,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2126598432"/>
+        <c:axId val="-2108513712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2044,7 +1675,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2073637216"/>
+        <c:crossAx val="2143404736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2091,7 +1722,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 4'!$C$38</c:f>
+              <c:f>'Sprint 5'!$C$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2187,30 +1818,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 4'!$D$38:$J$38</c:f>
+              <c:f>'Sprint 5'!$D$38:$J$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>510.0</c:v>
+                  <c:v>415.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>490.0</c:v>
+                  <c:v>355.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>375.0</c:v>
+                  <c:v>275.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>325.0</c:v>
+                  <c:v>185.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>245.0</c:v>
+                  <c:v>185.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>160.0</c:v>
+                  <c:v>185.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>120.0</c:v>
+                  <c:v>185.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2228,27 +1859,27 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 4'!$D$37:$J$37</c:f>
+              <c:f>'Sprint 5'!$D$37:$J$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>510.0</c:v>
+                  <c:v>415.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>425.0</c:v>
+                  <c:v>346.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>340.0</c:v>
+                  <c:v>276.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>255.0</c:v>
+                  <c:v>207.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>170.0</c:v>
+                  <c:v>138.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>85.0</c:v>
+                  <c:v>69.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.0</c:v>
@@ -2267,11 +1898,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2136710400"/>
-        <c:axId val="2130897952"/>
+        <c:axId val="2103789040"/>
+        <c:axId val="2103794224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2136710400"/>
+        <c:axId val="2103789040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2310,7 +1941,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2130897952"/>
+        <c:crossAx val="2103794224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2318,7 +1949,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2130897952"/>
+        <c:axId val="2103794224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2362,7 +1993,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2136710400"/>
+        <c:crossAx val="2103789040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2754,7 +2385,7 @@
   <dimension ref="A1:BM101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
@@ -4947,62 +4578,62 @@
     <mergeCell ref="A40:D40"/>
   </mergeCells>
   <conditionalFormatting sqref="A37:BM38">
-    <cfRule type="cellIs" dxfId="47" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="cellIs" dxfId="44" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:BM34">
-    <cfRule type="cellIs" dxfId="43" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D34">
-    <cfRule type="cellIs" dxfId="42" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="cellIs" dxfId="41" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="cellIs" dxfId="40" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="cellIs" dxfId="39" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="38" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D34">
-    <cfRule type="cellIs" dxfId="37" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D34">
-    <cfRule type="cellIs" dxfId="36" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5018,8 +4649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5389,11 +5020,13 @@
       </c>
       <c r="D4" s="8">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="G4" s="16">
+        <v>10</v>
+      </c>
       <c r="BM4" s="17"/>
     </row>
     <row r="5" spans="1:65" ht="13" x14ac:dyDescent="0.15">
@@ -5409,11 +5042,13 @@
       </c>
       <c r="D5" s="8">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="G5" s="16">
+        <v>50</v>
+      </c>
       <c r="H5" s="16"/>
       <c r="BM5" s="17"/>
     </row>
@@ -5503,16 +5138,20 @@
       <c r="M9" s="16"/>
       <c r="BM9" s="17"/>
     </row>
-    <row r="10" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
+    <row r="10" spans="1:65" ht="26" x14ac:dyDescent="0.15">
+      <c r="A10" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="19">
+        <v>10</v>
+      </c>
       <c r="C10" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D10" s="8">
         <f>IF(C10&gt;B10,$C10-(SUM($E10:$BM10)),$B10-(SUM($E10:$BM10)))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E10" s="15"/>
       <c r="N10" s="16"/>
@@ -5520,15 +5159,19 @@
       <c r="BM10" s="17"/>
     </row>
     <row r="11" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="19">
+        <v>20</v>
+      </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D11" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E11" s="15"/>
       <c r="O11" s="16"/>
@@ -5536,64 +5179,83 @@
       <c r="BM11" s="17"/>
     </row>
     <row r="12" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="19">
+        <v>10</v>
+      </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D12" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E12" s="15"/>
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
       <c r="BM12" s="17"/>
     </row>
-    <row r="13" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
+    <row r="13" spans="1:65" ht="26" x14ac:dyDescent="0.15">
+      <c r="A13" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="19">
+        <v>10</v>
+      </c>
       <c r="C13" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D13" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E13" s="15"/>
       <c r="Q13" s="16"/>
       <c r="BM13" s="17"/>
     </row>
     <row r="14" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="19">
+        <v>15</v>
+      </c>
       <c r="C14" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D14" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E14" s="15"/>
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
       <c r="BM14" s="17"/>
     </row>
-    <row r="15" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
+    <row r="15" spans="1:65" ht="39" x14ac:dyDescent="0.15">
+      <c r="A15" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="19">
+        <v>10</v>
+      </c>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D15" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E15" s="15"/>
+      <c r="G15" s="45">
+        <v>10</v>
+      </c>
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
       <c r="T15" s="16"/>
@@ -5601,17 +5263,24 @@
       <c r="BM15" s="17"/>
     </row>
     <row r="16" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="19">
+        <v>20</v>
+      </c>
       <c r="C16" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D16" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E16" s="15"/>
+      <c r="G16" s="45">
+        <v>20</v>
+      </c>
       <c r="R16" s="16"/>
       <c r="U16" s="16"/>
       <c r="V16" s="16"/>
@@ -5941,15 +5610,15 @@
       </c>
       <c r="B35" s="26">
         <f t="shared" ref="B35:D35" si="2">SUM(B3:B34)</f>
-        <v>320</v>
+        <v>415</v>
       </c>
       <c r="C35" s="27">
         <f t="shared" si="2"/>
-        <v>320</v>
+        <v>415</v>
       </c>
       <c r="D35" s="27">
         <f t="shared" si="2"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E35" s="28">
         <f t="shared" ref="E35:BM35" si="3">SUM(E3:E19)</f>
@@ -5961,7 +5630,7 @@
       </c>
       <c r="G35" s="28">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H35" s="28">
         <f t="shared" si="3"/>
@@ -6207,22 +5876,22 @@
       <c r="C36" s="31"/>
       <c r="D36" s="32"/>
       <c r="E36" s="33">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F36" s="35">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G36" s="35">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="H36" s="35">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="I36" s="35">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="J36" s="35">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="K36" s="35">
         <v>0</v>
@@ -6320,27 +5989,27 @@
       </c>
       <c r="D37" s="40">
         <f>B35</f>
-        <v>320</v>
+        <v>415</v>
       </c>
       <c r="E37" s="42">
         <f t="shared" ref="E37:BM37" si="4">D37-E36</f>
-        <v>266</v>
+        <v>346</v>
       </c>
       <c r="F37" s="42">
         <f t="shared" si="4"/>
-        <v>213</v>
+        <v>276</v>
       </c>
       <c r="G37" s="42">
         <f t="shared" si="4"/>
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="H37" s="42">
         <f t="shared" si="4"/>
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="I37" s="42">
         <f t="shared" si="4"/>
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="J37" s="42">
         <f t="shared" si="4"/>
@@ -6577,251 +6246,251 @@
       </c>
       <c r="D38" s="40">
         <f>C35</f>
-        <v>320</v>
+        <v>415</v>
       </c>
       <c r="E38" s="40">
         <f>$C$35-SUM(E$3:E$34)</f>
-        <v>260</v>
+        <v>355</v>
       </c>
       <c r="F38" s="40">
         <f t="shared" ref="F38:BM38" si="5">E38-SUM(F3:F34)</f>
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="G38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="I38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="J38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="K38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="N38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="O38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="P38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="R38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="S38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="T38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="U38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="V38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="W38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="X38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Y38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Z38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AA38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AB38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AC38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AD38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AE38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AF38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AG38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AH38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AI38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AJ38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AK38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AL38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AM38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AN38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AO38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AP38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AQ38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AR38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AS38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AT38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AU38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AV38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AW38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AX38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AY38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AZ38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="BA38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="BB38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="BC38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="BD38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="BE38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="BF38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="BG38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="BH38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="BI38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="BJ38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="BK38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="BL38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="BM38" s="40">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:65" ht="18" x14ac:dyDescent="0.2">
@@ -7149,62 +6818,62 @@
     <mergeCell ref="A40:D40"/>
   </mergeCells>
   <conditionalFormatting sqref="A37:BM38">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:BM34">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D34">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D34">
-    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D34">
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Document/SprintBurnDown.xlsx
+++ b/Document/SprintBurnDown.xlsx
@@ -1172,11 +1172,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2107263744"/>
-        <c:axId val="2103342032"/>
+        <c:axId val="-2078442832"/>
+        <c:axId val="2117280432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2107263744"/>
+        <c:axId val="-2078442832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1198,7 +1198,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1215,7 +1214,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2103342032"/>
+        <c:crossAx val="2117280432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1223,7 +1222,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2103342032"/>
+        <c:axId val="2117280432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1245,7 +1244,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1267,14 +1265,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2107263744"/>
+        <c:crossAx val="-2078442832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1580,11 +1577,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2143404736"/>
-        <c:axId val="-2108513712"/>
+        <c:axId val="-2075472096"/>
+        <c:axId val="-2075466912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2143404736"/>
+        <c:axId val="-2075472096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1623,7 +1620,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2108513712"/>
+        <c:crossAx val="-2075466912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1631,7 +1628,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2108513712"/>
+        <c:axId val="-2075466912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1675,7 +1672,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143404736"/>
+        <c:crossAx val="-2075472096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1835,13 +1832,13 @@
                   <c:v>185.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>185.0</c:v>
+                  <c:v>165.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>185.0</c:v>
+                  <c:v>110.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>185.0</c:v>
+                  <c:v>110.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1898,11 +1895,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2103789040"/>
-        <c:axId val="2103794224"/>
+        <c:axId val="-2113107120"/>
+        <c:axId val="2139379088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2103789040"/>
+        <c:axId val="-2113107120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1941,7 +1938,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2103794224"/>
+        <c:crossAx val="2139379088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1949,7 +1946,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2103794224"/>
+        <c:axId val="2139379088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1993,7 +1990,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2103789040"/>
+        <c:crossAx val="-2113107120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4649,8 +4646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5084,13 +5081,15 @@
       </c>
       <c r="D7" s="8">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="45">
         <v>80</v>
       </c>
-      <c r="I7" s="16"/>
+      <c r="I7" s="16">
+        <v>40</v>
+      </c>
       <c r="J7" s="16"/>
       <c r="BM7" s="17"/>
     </row>
@@ -5151,9 +5150,12 @@
       </c>
       <c r="D10" s="8">
         <f>IF(C10&gt;B10,$C10-(SUM($E10:$BM10)),$B10-(SUM($E10:$BM10)))</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="H10" s="45">
         <v>10</v>
       </c>
-      <c r="E10" s="15"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="BM10" s="17"/>
@@ -5191,9 +5193,12 @@
       </c>
       <c r="D12" s="8">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="H12" s="45">
         <v>10</v>
       </c>
-      <c r="E12" s="15"/>
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
       <c r="BM12" s="17"/>
@@ -5230,9 +5235,12 @@
       </c>
       <c r="D14" s="8">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="I14" s="45">
         <v>15</v>
       </c>
-      <c r="E14" s="15"/>
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
       <c r="BM14" s="17"/>
@@ -5618,7 +5626,7 @@
       </c>
       <c r="D35" s="27">
         <f t="shared" si="2"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="E35" s="28">
         <f t="shared" ref="E35:BM35" si="3">SUM(E3:E19)</f>
@@ -5634,11 +5642,11 @@
       </c>
       <c r="H35" s="28">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I35" s="28">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="J35" s="28">
         <f t="shared" si="3"/>
@@ -6262,235 +6270,235 @@
       </c>
       <c r="H38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="I38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="J38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="K38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="L38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="M38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="N38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="O38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="P38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="Q38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="R38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="S38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="T38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="U38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="V38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="W38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="X38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="Y38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="Z38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="AA38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="AB38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="AC38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="AD38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="AE38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="AF38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="AG38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="AH38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="AI38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="AJ38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="AK38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="AL38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="AM38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="AN38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="AO38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="AP38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="AQ38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="AR38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="AS38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="AT38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="AU38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="AV38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="AW38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="AX38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="AY38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="AZ38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="BA38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="BB38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="BC38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="BD38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="BE38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="BF38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="BG38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="BH38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="BI38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="BJ38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="BK38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="BL38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="BM38" s="40">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:65" ht="18" x14ac:dyDescent="0.2">

--- a/Document/SprintBurnDown.xlsx
+++ b/Document/SprintBurnDown.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chung1991/Desktop/WebEnterprise/Document/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Data/Project/WebEnterprise/Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="Sprint 4" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 5" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint 6" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
   <si>
     <t>Task</t>
   </si>
@@ -142,6 +143,24 @@
   </si>
   <si>
     <t>Insert 2 users of 2 role DLT &amp; PVC</t>
+  </si>
+  <si>
+    <t>Put link into Email</t>
+  </si>
+  <si>
+    <t>Put information into Email</t>
+  </si>
+  <si>
+    <t>Add status after response CMR</t>
+  </si>
+  <si>
+    <t>Collect information to fill adding CMR form</t>
+  </si>
+  <si>
+    <t>Create summarize report</t>
+  </si>
+  <si>
+    <t>Write group report</t>
   </si>
 </sst>
 </file>
@@ -422,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -561,6 +580,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -574,7 +596,397 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="48">
+    <dxf>
+      <font>
+        <color rgb="FF003366"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF003366"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF800000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF800000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF800000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF800000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF800000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF800000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF800000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE69999"/>
+          <bgColor rgb="FFE69999"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF800000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE69999"/>
+          <bgColor rgb="FFE69999"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFADCB3"/>
+          <bgColor rgb="FFFADCB3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFADCB3"/>
+          <bgColor rgb="FFFADCB3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC00"/>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC00"/>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF003366"/>
@@ -1172,11 +1584,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2078442832"/>
-        <c:axId val="2117280432"/>
+        <c:axId val="-2051202224"/>
+        <c:axId val="-2051699360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2078442832"/>
+        <c:axId val="-2051202224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1214,7 +1626,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117280432"/>
+        <c:crossAx val="-2051699360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1222,7 +1634,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2117280432"/>
+        <c:axId val="-2051699360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1265,7 +1677,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2078442832"/>
+        <c:crossAx val="-2051202224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1577,11 +1989,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2075472096"/>
-        <c:axId val="-2075466912"/>
+        <c:axId val="-2051383984"/>
+        <c:axId val="-2046353072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2075472096"/>
+        <c:axId val="-2051383984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1620,7 +2032,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2075466912"/>
+        <c:crossAx val="-2046353072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1628,7 +2040,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2075466912"/>
+        <c:axId val="-2046353072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1672,7 +2084,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2075472096"/>
+        <c:crossAx val="-2051383984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1838,7 +2250,7 @@
                   <c:v>110.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>110.0</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1895,11 +2307,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2113107120"/>
-        <c:axId val="2139379088"/>
+        <c:axId val="-2046415200"/>
+        <c:axId val="-2046381056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2113107120"/>
+        <c:axId val="-2046415200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1938,7 +2350,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2139379088"/>
+        <c:crossAx val="-2046381056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1946,7 +2358,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2139379088"/>
+        <c:axId val="-2046381056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1990,7 +2402,733 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2113107120"/>
+        <c:crossAx val="-2046415200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 4'!$C$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Burnout</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="3D85C6"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 4'!$D$37:$AC$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>510.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>425.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>340.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>255.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 4'!$D$38:$AC$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>510.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>490.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>375.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>325.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>245.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>120.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Estimate</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 4'!$D$37:$AC$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>510.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>425.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>340.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>255.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2057026352"/>
+        <c:axId val="-2057239424"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2057026352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Days in Calendar</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2057239424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2057239424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hours left</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2057026352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 6'!$C$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Burnout</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="3D85C6"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 4'!$D$37:$AC$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>510.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>425.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>340.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>255.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 6'!$D$38:$J$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>530.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>530.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>530.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>530.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>530.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>530.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>530.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Estimate</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 6'!$D$37:$J$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>530.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>442.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>353.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>265.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>177.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2052635104"/>
+        <c:axId val="-2052629920"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2052635104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Days in Calendar</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2052629920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2052629920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hours left</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2052635104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2048,6 +3186,75 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4251,12 +5458,12 @@
       </c>
     </row>
     <row r="39" spans="1:65" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="43"/>
@@ -4319,12 +5526,12 @@
       <c r="BM39" s="43"/>
     </row>
     <row r="40" spans="1:65" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="48" t="s">
+      <c r="A40" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="43"/>
@@ -4575,62 +5782,62 @@
     <mergeCell ref="A40:D40"/>
   </mergeCells>
   <conditionalFormatting sqref="A37:BM38">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:BM34">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D34">
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="9" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="10" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D34">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D34">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4646,8 +5853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5173,9 +6380,12 @@
       </c>
       <c r="D11" s="8">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="J11" s="45">
         <v>20</v>
       </c>
-      <c r="E11" s="15"/>
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
       <c r="BM11" s="17"/>
@@ -5626,7 +6836,7 @@
       </c>
       <c r="D35" s="27">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E35" s="28">
         <f t="shared" ref="E35:BM35" si="3">SUM(E3:E19)</f>
@@ -5650,7 +6860,7 @@
       </c>
       <c r="J35" s="28">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K35" s="28">
         <f t="shared" si="3"/>
@@ -6278,236 +7488,236 @@
       </c>
       <c r="J38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="K38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="L38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="M38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="N38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="O38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="P38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="Q38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="R38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="S38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="T38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="U38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="V38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="W38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="X38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="Y38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="Z38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AA38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AB38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AC38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AD38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AE38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AF38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AG38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AH38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AI38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AJ38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AK38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AL38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AM38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AO38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AP38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AQ38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AR38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AS38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AT38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AU38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AV38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AW38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AX38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AY38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AZ38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="BA38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="BB38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="BC38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="BD38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="BE38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="BF38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="BG38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="BH38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="BI38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="BJ38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="BK38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="BL38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="BM38" s="40">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:65" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="43"/>
@@ -6570,12 +7780,12 @@
       <c r="BM39" s="43"/>
     </row>
     <row r="40" spans="1:65" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="48" t="s">
+      <c r="A40" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="43"/>
@@ -6826,62 +8036,2261 @@
     <mergeCell ref="A40:D40"/>
   </mergeCells>
   <conditionalFormatting sqref="A37:BM38">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:BM34">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D34">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="9" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D34">
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D34">
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A40" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BM101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" style="46" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="46" customWidth="1"/>
+    <col min="6" max="25" width="5.5" style="46" customWidth="1"/>
+    <col min="26" max="64" width="5.5" style="46" hidden="1" customWidth="1"/>
+    <col min="65" max="65" width="5.5" style="46" customWidth="1"/>
+    <col min="66" max="16384" width="17.33203125" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:65" ht="33" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1">
+        <v>11</v>
+      </c>
+      <c r="P1" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>13</v>
+      </c>
+      <c r="R1" s="1">
+        <v>14</v>
+      </c>
+      <c r="S1" s="1">
+        <v>15</v>
+      </c>
+      <c r="T1" s="1">
+        <v>16</v>
+      </c>
+      <c r="U1" s="1">
+        <v>17</v>
+      </c>
+      <c r="V1" s="1">
+        <v>18</v>
+      </c>
+      <c r="W1" s="1">
+        <v>19</v>
+      </c>
+      <c r="X1" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>6</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>7</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>8</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>9</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>10</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>11</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>12</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>13</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>14</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>15</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>16</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>17</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>19</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>20</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>21</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>22</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>23</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>24</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>25</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>26</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>27</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>28</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>29</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
+      <c r="BI2" s="3"/>
+      <c r="BJ2" s="3"/>
+      <c r="BK2" s="3"/>
+      <c r="BL2" s="3"/>
+      <c r="BM2" s="3"/>
+    </row>
+    <row r="3" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="6">
+        <v>30</v>
+      </c>
+      <c r="C3" s="7">
+        <f t="shared" ref="C3:C34" si="0">IF(B3&lt;SUM(E3:BL3),SUM(E3:BL3),B3)</f>
+        <v>30</v>
+      </c>
+      <c r="D3" s="8">
+        <f t="shared" ref="D3:D34" si="1">IF(C3&gt;B3,$C3-(SUM($E3:$BM3)),$B3-(SUM($E3:$BM3)))</f>
+        <v>30</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="11"/>
+      <c r="AP3" s="11"/>
+      <c r="AQ3" s="11"/>
+      <c r="AR3" s="11"/>
+      <c r="AS3" s="11"/>
+      <c r="AT3" s="11"/>
+      <c r="AU3" s="11"/>
+      <c r="AV3" s="11"/>
+      <c r="AW3" s="11"/>
+      <c r="AX3" s="11"/>
+      <c r="AY3" s="11"/>
+      <c r="AZ3" s="11"/>
+      <c r="BA3" s="11"/>
+      <c r="BB3" s="11"/>
+      <c r="BC3" s="11"/>
+      <c r="BD3" s="11"/>
+      <c r="BE3" s="11"/>
+      <c r="BF3" s="11"/>
+      <c r="BG3" s="11"/>
+      <c r="BH3" s="11"/>
+      <c r="BI3" s="11"/>
+      <c r="BJ3" s="11"/>
+      <c r="BK3" s="11"/>
+      <c r="BL3" s="11"/>
+      <c r="BM3" s="12"/>
+    </row>
+    <row r="4" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="19">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D4" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="BM4" s="17"/>
+    </row>
+    <row r="5" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A5" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="19">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D5" s="8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="BM5" s="17"/>
+    </row>
+    <row r="6" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A6" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="19">
+        <v>20</v>
+      </c>
+      <c r="C6" s="7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D6" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="H6" s="16"/>
+      <c r="BM6" s="17"/>
+    </row>
+    <row r="7" spans="1:65" ht="26" x14ac:dyDescent="0.15">
+      <c r="A7" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="19">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="BM7" s="17"/>
+    </row>
+    <row r="8" spans="1:65" ht="26" x14ac:dyDescent="0.15">
+      <c r="A8" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="19">
+        <v>40</v>
+      </c>
+      <c r="C8" s="7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="BM8" s="17"/>
+    </row>
+    <row r="9" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A9" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="19">
+        <v>200</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="BM9" s="17"/>
+    </row>
+    <row r="10" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A10" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="19">
+        <v>200</v>
+      </c>
+      <c r="C10" s="7">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="D10" s="8">
+        <f>IF(C10&gt;B10,$C10-(SUM($E10:$BM10)),$B10-(SUM($E10:$BM10)))</f>
+        <v>200</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="BM10" s="17"/>
+    </row>
+    <row r="11" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="BM11" s="17"/>
+    </row>
+    <row r="12" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="BM12" s="17"/>
+    </row>
+    <row r="13" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="Q13" s="16"/>
+      <c r="BM13" s="17"/>
+    </row>
+    <row r="14" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="BM14" s="17"/>
+    </row>
+    <row r="15" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="BM15" s="17"/>
+    </row>
+    <row r="16" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="R16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="BM16" s="17"/>
+    </row>
+    <row r="17" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="BM17" s="17"/>
+    </row>
+    <row r="18" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="BM18" s="17"/>
+    </row>
+    <row r="19" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="BM19" s="17"/>
+    </row>
+    <row r="20" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="BM20" s="17"/>
+    </row>
+    <row r="21" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="BM21" s="17"/>
+    </row>
+    <row r="22" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="BM22" s="17"/>
+    </row>
+    <row r="23" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="BM23" s="17"/>
+    </row>
+    <row r="24" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="BM24" s="17"/>
+    </row>
+    <row r="25" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="BM25" s="17"/>
+    </row>
+    <row r="26" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="BM26" s="17"/>
+    </row>
+    <row r="27" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="BM27" s="17"/>
+    </row>
+    <row r="28" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="BM28" s="17"/>
+    </row>
+    <row r="29" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="BM29" s="17"/>
+    </row>
+    <row r="30" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="BM30" s="17"/>
+    </row>
+    <row r="31" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="BM31" s="17"/>
+    </row>
+    <row r="32" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="15"/>
+      <c r="BM32" s="17"/>
+    </row>
+    <row r="33" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="18"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="BM33" s="17"/>
+    </row>
+    <row r="34" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="22"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="23"/>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="23"/>
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="23"/>
+      <c r="AG34" s="23"/>
+      <c r="AH34" s="23"/>
+      <c r="AI34" s="23"/>
+      <c r="AJ34" s="23"/>
+      <c r="AK34" s="23"/>
+      <c r="AL34" s="23"/>
+      <c r="AM34" s="23"/>
+      <c r="AN34" s="23"/>
+      <c r="AO34" s="23"/>
+      <c r="AP34" s="23"/>
+      <c r="AQ34" s="23"/>
+      <c r="AR34" s="23"/>
+      <c r="AS34" s="23"/>
+      <c r="AT34" s="23"/>
+      <c r="AU34" s="23"/>
+      <c r="AV34" s="23"/>
+      <c r="AW34" s="23"/>
+      <c r="AX34" s="23"/>
+      <c r="AY34" s="23"/>
+      <c r="AZ34" s="23"/>
+      <c r="BA34" s="23"/>
+      <c r="BB34" s="23"/>
+      <c r="BC34" s="23"/>
+      <c r="BD34" s="23"/>
+      <c r="BE34" s="23"/>
+      <c r="BF34" s="23"/>
+      <c r="BG34" s="23"/>
+      <c r="BH34" s="23"/>
+      <c r="BI34" s="23"/>
+      <c r="BJ34" s="23"/>
+      <c r="BK34" s="23"/>
+      <c r="BL34" s="23"/>
+      <c r="BM34" s="24"/>
+    </row>
+    <row r="35" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A35" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="26">
+        <f t="shared" ref="B35:D35" si="2">SUM(B3:B34)</f>
+        <v>530</v>
+      </c>
+      <c r="C35" s="27">
+        <f t="shared" si="2"/>
+        <v>530</v>
+      </c>
+      <c r="D35" s="27">
+        <f t="shared" si="2"/>
+        <v>530</v>
+      </c>
+      <c r="E35" s="28">
+        <f t="shared" ref="E35:BM35" si="3">SUM(E3:E19)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AM35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AN35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AO35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AR35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AS35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AT35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AU35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AV35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AW35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AX35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AY35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AZ35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BA35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BB35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BC35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BE35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BF35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BG35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BH35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BI35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BJ35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BK35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BL35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BM35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:65" ht="16" x14ac:dyDescent="0.15">
+      <c r="A36" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="30">
+        <f>B35-SUM(E36:BL36)</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="31"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="33">
+        <v>88</v>
+      </c>
+      <c r="F36" s="35">
+        <v>89</v>
+      </c>
+      <c r="G36" s="35">
+        <v>88</v>
+      </c>
+      <c r="H36" s="35">
+        <v>88</v>
+      </c>
+      <c r="I36" s="35">
+        <v>89</v>
+      </c>
+      <c r="J36" s="35">
+        <v>88</v>
+      </c>
+      <c r="K36" s="35">
+        <v>0</v>
+      </c>
+      <c r="L36" s="35">
+        <v>0</v>
+      </c>
+      <c r="M36" s="35">
+        <v>0</v>
+      </c>
+      <c r="N36" s="35">
+        <v>0</v>
+      </c>
+      <c r="O36" s="35">
+        <v>0</v>
+      </c>
+      <c r="P36" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="35">
+        <v>0</v>
+      </c>
+      <c r="R36" s="35">
+        <v>0</v>
+      </c>
+      <c r="S36" s="35">
+        <v>0</v>
+      </c>
+      <c r="T36" s="35">
+        <v>0</v>
+      </c>
+      <c r="U36" s="35">
+        <v>0</v>
+      </c>
+      <c r="V36" s="35">
+        <v>0</v>
+      </c>
+      <c r="W36" s="35">
+        <v>0</v>
+      </c>
+      <c r="X36" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="35"/>
+      <c r="AA36" s="35"/>
+      <c r="AB36" s="35"/>
+      <c r="AC36" s="35"/>
+      <c r="AD36" s="35"/>
+      <c r="AE36" s="35"/>
+      <c r="AF36" s="35"/>
+      <c r="AG36" s="35"/>
+      <c r="AH36" s="35"/>
+      <c r="AI36" s="35"/>
+      <c r="AJ36" s="35"/>
+      <c r="AK36" s="35"/>
+      <c r="AL36" s="35"/>
+      <c r="AM36" s="35"/>
+      <c r="AN36" s="35"/>
+      <c r="AO36" s="35"/>
+      <c r="AP36" s="35"/>
+      <c r="AQ36" s="35"/>
+      <c r="AR36" s="35"/>
+      <c r="AS36" s="35"/>
+      <c r="AT36" s="35"/>
+      <c r="AU36" s="35"/>
+      <c r="AV36" s="35"/>
+      <c r="AW36" s="35"/>
+      <c r="AX36" s="35"/>
+      <c r="AY36" s="35"/>
+      <c r="AZ36" s="35"/>
+      <c r="BA36" s="35"/>
+      <c r="BB36" s="35"/>
+      <c r="BC36" s="35"/>
+      <c r="BD36" s="35"/>
+      <c r="BE36" s="35"/>
+      <c r="BF36" s="35"/>
+      <c r="BG36" s="35"/>
+      <c r="BH36" s="35"/>
+      <c r="BI36" s="35"/>
+      <c r="BJ36" s="35"/>
+      <c r="BK36" s="35"/>
+      <c r="BL36" s="35"/>
+      <c r="BM36" s="36"/>
+    </row>
+    <row r="37" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A37" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="40"/>
+      <c r="C37" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="40">
+        <f>B35</f>
+        <v>530</v>
+      </c>
+      <c r="E37" s="42">
+        <f t="shared" ref="E37:BM37" si="4">D37-E36</f>
+        <v>442</v>
+      </c>
+      <c r="F37" s="42">
+        <f t="shared" si="4"/>
+        <v>353</v>
+      </c>
+      <c r="G37" s="42">
+        <f t="shared" si="4"/>
+        <v>265</v>
+      </c>
+      <c r="H37" s="42">
+        <f t="shared" si="4"/>
+        <v>177</v>
+      </c>
+      <c r="I37" s="42">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="J37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AL37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AN37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AO37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AP37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AR37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AS37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AT37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AU37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AV37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AW37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AX37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AY37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AZ37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BA37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BB37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BC37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BD37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BF37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BG37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BH37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BI37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BJ37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BK37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BL37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BM37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A38" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="40"/>
+      <c r="C38" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="40">
+        <f>C35</f>
+        <v>530</v>
+      </c>
+      <c r="E38" s="40">
+        <f>$C$35-SUM(E$3:E$34)</f>
+        <v>530</v>
+      </c>
+      <c r="F38" s="40">
+        <f t="shared" ref="F38:BM38" si="5">E38-SUM(F3:F34)</f>
+        <v>530</v>
+      </c>
+      <c r="G38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="H38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="I38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="J38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="K38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="L38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="M38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="N38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="O38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="P38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="Q38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="R38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="S38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="T38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="U38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="V38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="W38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="X38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="Y38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="Z38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="AA38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="AB38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="AC38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="AD38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="AE38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="AF38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="AG38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="AH38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="AI38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="AJ38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="AK38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="AL38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="AM38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="AN38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="AO38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="AP38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="AQ38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="AR38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="AS38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="AT38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="AU38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="AV38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="AW38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="AX38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="AY38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="AZ38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="BA38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="BB38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="BC38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="BD38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="BE38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="BF38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="BG38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="BH38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="BI38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="BJ38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="BK38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="BL38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="BM38" s="40">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="39" spans="1:65" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="43"/>
+      <c r="U39" s="43"/>
+      <c r="V39" s="43"/>
+      <c r="W39" s="43"/>
+      <c r="X39" s="43"/>
+      <c r="Y39" s="43"/>
+      <c r="Z39" s="43"/>
+      <c r="AA39" s="43"/>
+      <c r="AB39" s="43"/>
+      <c r="AC39" s="43"/>
+      <c r="AD39" s="43"/>
+      <c r="AE39" s="43"/>
+      <c r="AF39" s="43"/>
+      <c r="AG39" s="43"/>
+      <c r="AH39" s="43"/>
+      <c r="AI39" s="43"/>
+      <c r="AJ39" s="43"/>
+      <c r="AK39" s="43"/>
+      <c r="AL39" s="43"/>
+      <c r="AM39" s="43"/>
+      <c r="AN39" s="43"/>
+      <c r="AO39" s="43"/>
+      <c r="AP39" s="43"/>
+      <c r="AQ39" s="43"/>
+      <c r="AR39" s="43"/>
+      <c r="AS39" s="43"/>
+      <c r="AT39" s="43"/>
+      <c r="AU39" s="43"/>
+      <c r="AV39" s="43"/>
+      <c r="AW39" s="43"/>
+      <c r="AX39" s="43"/>
+      <c r="AY39" s="43"/>
+      <c r="AZ39" s="43"/>
+      <c r="BA39" s="43"/>
+      <c r="BB39" s="43"/>
+      <c r="BC39" s="43"/>
+      <c r="BD39" s="43"/>
+      <c r="BE39" s="43"/>
+      <c r="BF39" s="43"/>
+      <c r="BG39" s="43"/>
+      <c r="BH39" s="43"/>
+      <c r="BI39" s="43"/>
+      <c r="BJ39" s="43"/>
+      <c r="BK39" s="43"/>
+      <c r="BL39" s="43"/>
+      <c r="BM39" s="43"/>
+    </row>
+    <row r="40" spans="1:65" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="43"/>
+      <c r="R40" s="43"/>
+      <c r="S40" s="43"/>
+      <c r="T40" s="43"/>
+      <c r="U40" s="43"/>
+      <c r="V40" s="43"/>
+      <c r="W40" s="43"/>
+      <c r="X40" s="43"/>
+      <c r="Y40" s="43"/>
+      <c r="Z40" s="43"/>
+      <c r="AA40" s="43"/>
+      <c r="AB40" s="43"/>
+      <c r="AC40" s="43"/>
+      <c r="AD40" s="43"/>
+      <c r="AE40" s="43"/>
+      <c r="AF40" s="43"/>
+      <c r="AG40" s="43"/>
+      <c r="AH40" s="43"/>
+      <c r="AI40" s="43"/>
+      <c r="AJ40" s="43"/>
+      <c r="AK40" s="43"/>
+      <c r="AL40" s="43"/>
+      <c r="AM40" s="43"/>
+      <c r="AN40" s="43"/>
+      <c r="AO40" s="43"/>
+      <c r="AP40" s="43"/>
+      <c r="AQ40" s="43"/>
+      <c r="AR40" s="43"/>
+      <c r="AS40" s="43"/>
+      <c r="AT40" s="43"/>
+      <c r="AU40" s="43"/>
+      <c r="AV40" s="43"/>
+      <c r="AW40" s="43"/>
+      <c r="AX40" s="43"/>
+      <c r="AY40" s="43"/>
+      <c r="AZ40" s="43"/>
+      <c r="BA40" s="43"/>
+      <c r="BB40" s="43"/>
+      <c r="BC40" s="43"/>
+      <c r="BD40" s="43"/>
+      <c r="BE40" s="43"/>
+      <c r="BF40" s="43"/>
+      <c r="BG40" s="43"/>
+      <c r="BH40" s="43"/>
+      <c r="BI40" s="43"/>
+      <c r="BJ40" s="43"/>
+      <c r="BK40" s="43"/>
+      <c r="BL40" s="43"/>
+      <c r="BM40" s="43"/>
+    </row>
+    <row r="41" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A41" s="44"/>
+    </row>
+    <row r="42" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A42" s="44"/>
+    </row>
+    <row r="43" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A43" s="44"/>
+    </row>
+    <row r="44" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A44" s="44"/>
+    </row>
+    <row r="45" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A45" s="44"/>
+    </row>
+    <row r="46" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A46" s="44"/>
+    </row>
+    <row r="47" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A47" s="44"/>
+    </row>
+    <row r="48" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A48" s="44"/>
+    </row>
+    <row r="49" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A49" s="44"/>
+    </row>
+    <row r="50" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A50" s="44"/>
+    </row>
+    <row r="51" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A51" s="44"/>
+    </row>
+    <row r="52" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A52" s="44"/>
+    </row>
+    <row r="53" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A53" s="44"/>
+    </row>
+    <row r="54" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A54" s="44"/>
+    </row>
+    <row r="55" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A55" s="44"/>
+    </row>
+    <row r="56" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A56" s="44"/>
+    </row>
+    <row r="57" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A57" s="44"/>
+    </row>
+    <row r="58" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A58" s="44"/>
+    </row>
+    <row r="59" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A59" s="44"/>
+    </row>
+    <row r="60" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A60" s="44"/>
+    </row>
+    <row r="61" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A61" s="44"/>
+    </row>
+    <row r="62" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A62" s="44"/>
+    </row>
+    <row r="63" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A63" s="44"/>
+    </row>
+    <row r="64" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A64" s="44"/>
+    </row>
+    <row r="65" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A65" s="44"/>
+    </row>
+    <row r="66" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A66" s="44"/>
+    </row>
+    <row r="67" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A67" s="44"/>
+    </row>
+    <row r="68" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A68" s="44"/>
+    </row>
+    <row r="69" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A69" s="44"/>
+    </row>
+    <row r="70" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A70" s="44"/>
+    </row>
+    <row r="71" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A71" s="44"/>
+    </row>
+    <row r="72" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A72" s="44"/>
+    </row>
+    <row r="73" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A73" s="44"/>
+    </row>
+    <row r="74" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A74" s="44"/>
+    </row>
+    <row r="75" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A75" s="44"/>
+    </row>
+    <row r="76" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A76" s="44"/>
+    </row>
+    <row r="77" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A77" s="44"/>
+    </row>
+    <row r="78" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A78" s="44"/>
+    </row>
+    <row r="79" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A79" s="44"/>
+    </row>
+    <row r="80" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A80" s="44"/>
+    </row>
+    <row r="81" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A81" s="44"/>
+    </row>
+    <row r="82" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A82" s="44"/>
+    </row>
+    <row r="83" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A83" s="44"/>
+    </row>
+    <row r="84" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A84" s="44"/>
+    </row>
+    <row r="85" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A85" s="44"/>
+    </row>
+    <row r="86" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A86" s="44"/>
+    </row>
+    <row r="87" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A87" s="44"/>
+    </row>
+    <row r="88" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A88" s="44"/>
+    </row>
+    <row r="89" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A89" s="44"/>
+    </row>
+    <row r="90" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A90" s="44"/>
+    </row>
+    <row r="91" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A91" s="44"/>
+    </row>
+    <row r="92" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A92" s="44"/>
+    </row>
+    <row r="93" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A93" s="44"/>
+    </row>
+    <row r="94" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A94" s="44"/>
+    </row>
+    <row r="95" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A95" s="44"/>
+    </row>
+    <row r="96" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A96" s="44"/>
+    </row>
+    <row r="97" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A97" s="44"/>
+    </row>
+    <row r="98" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A98" s="44"/>
+    </row>
+    <row r="99" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A99" s="44"/>
+    </row>
+    <row r="100" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A100" s="44"/>
+    </row>
+    <row r="101" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A101" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A37:BM38">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:BM34">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D34">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="greaterThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="greaterThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D34">
+    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D34">
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Document/SprintBurnDown.xlsx
+++ b/Document/SprintBurnDown.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="460" windowWidth="24380" windowHeight="14680" activeTab="1"/>
+    <workbookView xWindow="1220" yWindow="460" windowWidth="24380" windowHeight="14680" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 4" sheetId="1" r:id="rId1"/>
@@ -596,7 +596,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="36">
     <dxf>
       <font>
         <color rgb="FF003366"/>
@@ -605,42 +605,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFCCFFFF"/>
           <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF003366"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF008000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
         </patternFill>
       </fill>
       <alignment wrapText="1"/>
@@ -719,69 +683,6 @@
         <color rgb="FF800000"/>
       </font>
       <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF800000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF800000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF800000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE69999"/>
-          <bgColor rgb="FFE69999"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF800000"/>
-      </font>
-      <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFE69999"/>
           <bgColor rgb="FFE69999"/>
@@ -803,39 +704,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFADCB3"/>
           <bgColor rgb="FFFADCB3"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF6600"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFADCB3"/>
-          <bgColor rgb="FFFADCB3"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFCC00"/>
-          <bgColor rgb="FFFFCC00"/>
         </patternFill>
       </fill>
       <alignment wrapText="1"/>
@@ -897,69 +765,6 @@
       </font>
       <fill>
         <patternFill patternType="none"/>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF008000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF008000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF008000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF008000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
       </fill>
       <alignment wrapText="1"/>
       <border>
@@ -1584,11 +1389,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2051202224"/>
-        <c:axId val="-2051699360"/>
+        <c:axId val="-2128105184"/>
+        <c:axId val="-2064024944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2051202224"/>
+        <c:axId val="-2128105184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1626,7 +1431,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2051699360"/>
+        <c:crossAx val="-2064024944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1634,7 +1439,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2051699360"/>
+        <c:axId val="-2064024944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1677,7 +1482,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2051202224"/>
+        <c:crossAx val="-2128105184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1989,11 +1794,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2051383984"/>
-        <c:axId val="-2046353072"/>
+        <c:axId val="-2103911568"/>
+        <c:axId val="2101235440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2051383984"/>
+        <c:axId val="-2103911568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2032,7 +1837,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2046353072"/>
+        <c:crossAx val="2101235440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2040,7 +1845,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2046353072"/>
+        <c:axId val="2101235440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2084,7 +1889,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2051383984"/>
+        <c:crossAx val="-2103911568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2307,11 +2112,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2046415200"/>
-        <c:axId val="-2046381056"/>
+        <c:axId val="-2064631600"/>
+        <c:axId val="-2066932928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2046415200"/>
+        <c:axId val="-2064631600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2350,7 +2155,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2046381056"/>
+        <c:crossAx val="-2066932928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2358,7 +2163,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2046381056"/>
+        <c:axId val="-2066932928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2402,7 +2207,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2046415200"/>
+        <c:crossAx val="-2064631600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2715,11 +2520,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2057026352"/>
-        <c:axId val="-2057239424"/>
+        <c:axId val="-2064593552"/>
+        <c:axId val="-2066545984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2057026352"/>
+        <c:axId val="-2064593552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2758,7 +2563,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2057239424"/>
+        <c:crossAx val="-2066545984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2766,7 +2571,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2057239424"/>
+        <c:axId val="-2066545984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2810,7 +2615,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2057026352"/>
+        <c:crossAx val="-2064593552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2961,22 +2766,22 @@
                   <c:v>530.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>530.0</c:v>
+                  <c:v>280.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>530.0</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>530.0</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>530.0</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>530.0</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>530.0</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3033,11 +2838,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2052635104"/>
-        <c:axId val="-2052629920"/>
+        <c:axId val="-2063661936"/>
+        <c:axId val="-2098736816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2052635104"/>
+        <c:axId val="-2063661936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3076,7 +2881,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2052629920"/>
+        <c:crossAx val="-2098736816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3084,7 +2889,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2052629920"/>
+        <c:axId val="-2098736816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3128,7 +2933,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2052635104"/>
+        <c:crossAx val="-2063661936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5782,2260 +5587,6 @@
     <mergeCell ref="A40:D40"/>
   </mergeCells>
   <conditionalFormatting sqref="A37:BM38">
-    <cfRule type="cellIs" dxfId="47" priority="1" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="cellIs" dxfId="44" priority="4" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:BM34">
-    <cfRule type="cellIs" dxfId="43" priority="5" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D34">
-    <cfRule type="cellIs" dxfId="42" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
-    <cfRule type="cellIs" dxfId="41" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="cellIs" dxfId="40" priority="8" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="cellIs" dxfId="39" priority="9" operator="greaterThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="38" priority="10" operator="greaterThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D34">
-    <cfRule type="cellIs" dxfId="37" priority="11" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D34">
-    <cfRule type="cellIs" dxfId="36" priority="12" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="A40" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM101"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="26.6640625" style="45" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" style="45" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="4.83203125" style="45" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" style="45" customWidth="1"/>
-    <col min="6" max="25" width="5.5" style="45" customWidth="1"/>
-    <col min="26" max="64" width="5.5" style="45" hidden="1" customWidth="1"/>
-    <col min="65" max="65" width="5.5" style="45" customWidth="1"/>
-    <col min="66" max="16384" width="17.33203125" style="45"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:65" ht="33" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1">
-        <v>10</v>
-      </c>
-      <c r="O1" s="1">
-        <v>11</v>
-      </c>
-      <c r="P1" s="1">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>13</v>
-      </c>
-      <c r="R1" s="1">
-        <v>14</v>
-      </c>
-      <c r="S1" s="1">
-        <v>15</v>
-      </c>
-      <c r="T1" s="1">
-        <v>16</v>
-      </c>
-      <c r="U1" s="1">
-        <v>17</v>
-      </c>
-      <c r="V1" s="1">
-        <v>18</v>
-      </c>
-      <c r="W1" s="1">
-        <v>19</v>
-      </c>
-      <c r="X1" s="1">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>22</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>23</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>2</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>3</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>4</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>5</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>6</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>7</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>8</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>9</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>10</v>
-      </c>
-      <c r="AT1" s="1">
-        <v>11</v>
-      </c>
-      <c r="AU1" s="1">
-        <v>12</v>
-      </c>
-      <c r="AV1" s="1">
-        <v>13</v>
-      </c>
-      <c r="AW1" s="1">
-        <v>14</v>
-      </c>
-      <c r="AX1" s="1">
-        <v>15</v>
-      </c>
-      <c r="AY1" s="1">
-        <v>16</v>
-      </c>
-      <c r="AZ1" s="1">
-        <v>17</v>
-      </c>
-      <c r="BA1" s="1">
-        <v>18</v>
-      </c>
-      <c r="BB1" s="1">
-        <v>19</v>
-      </c>
-      <c r="BC1" s="1">
-        <v>20</v>
-      </c>
-      <c r="BD1" s="1">
-        <v>21</v>
-      </c>
-      <c r="BE1" s="1">
-        <v>22</v>
-      </c>
-      <c r="BF1" s="1">
-        <v>23</v>
-      </c>
-      <c r="BG1" s="1">
-        <v>24</v>
-      </c>
-      <c r="BH1" s="1">
-        <v>25</v>
-      </c>
-      <c r="BI1" s="1">
-        <v>26</v>
-      </c>
-      <c r="BJ1" s="1">
-        <v>27</v>
-      </c>
-      <c r="BK1" s="1">
-        <v>28</v>
-      </c>
-      <c r="BL1" s="1">
-        <v>29</v>
-      </c>
-      <c r="BM1" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3"/>
-      <c r="AU2" s="3"/>
-      <c r="AV2" s="3"/>
-      <c r="AW2" s="3"/>
-      <c r="AX2" s="3"/>
-      <c r="AY2" s="3"/>
-      <c r="AZ2" s="3"/>
-      <c r="BA2" s="3"/>
-      <c r="BB2" s="3"/>
-      <c r="BC2" s="3"/>
-      <c r="BD2" s="3"/>
-      <c r="BE2" s="3"/>
-      <c r="BF2" s="3"/>
-      <c r="BG2" s="3"/>
-      <c r="BH2" s="3"/>
-      <c r="BI2" s="3"/>
-      <c r="BJ2" s="3"/>
-      <c r="BK2" s="3"/>
-      <c r="BL2" s="3"/>
-      <c r="BM2" s="3"/>
-    </row>
-    <row r="3" spans="1:65" ht="26" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="6">
-        <v>50</v>
-      </c>
-      <c r="C3" s="7">
-        <f t="shared" ref="C3:C34" si="0">IF(B3&lt;SUM(E3:BL3),SUM(E3:BL3),B3)</f>
-        <v>50</v>
-      </c>
-      <c r="D3" s="8">
-        <f t="shared" ref="D3:D34" si="1">IF(C3&gt;B3,$C3-(SUM($E3:$BM3)),$B3-(SUM($E3:$BM3)))</f>
-        <v>50</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="11"/>
-      <c r="AJ3" s="11"/>
-      <c r="AK3" s="11"/>
-      <c r="AL3" s="11"/>
-      <c r="AM3" s="11"/>
-      <c r="AN3" s="11"/>
-      <c r="AO3" s="11"/>
-      <c r="AP3" s="11"/>
-      <c r="AQ3" s="11"/>
-      <c r="AR3" s="11"/>
-      <c r="AS3" s="11"/>
-      <c r="AT3" s="11"/>
-      <c r="AU3" s="11"/>
-      <c r="AV3" s="11"/>
-      <c r="AW3" s="11"/>
-      <c r="AX3" s="11"/>
-      <c r="AY3" s="11"/>
-      <c r="AZ3" s="11"/>
-      <c r="BA3" s="11"/>
-      <c r="BB3" s="11"/>
-      <c r="BC3" s="11"/>
-      <c r="BD3" s="11"/>
-      <c r="BE3" s="11"/>
-      <c r="BF3" s="11"/>
-      <c r="BG3" s="11"/>
-      <c r="BH3" s="11"/>
-      <c r="BI3" s="11"/>
-      <c r="BJ3" s="11"/>
-      <c r="BK3" s="11"/>
-      <c r="BL3" s="11"/>
-      <c r="BM3" s="12"/>
-    </row>
-    <row r="4" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="19">
-        <v>10</v>
-      </c>
-      <c r="C4" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D4" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16">
-        <v>10</v>
-      </c>
-      <c r="BM4" s="17"/>
-    </row>
-    <row r="5" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="19">
-        <v>50</v>
-      </c>
-      <c r="C5" s="7">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="D5" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16">
-        <v>50</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="BM5" s="17"/>
-    </row>
-    <row r="6" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A6" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="19">
-        <v>30</v>
-      </c>
-      <c r="C6" s="7">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="D6" s="8">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="H6" s="16"/>
-      <c r="BM6" s="17"/>
-    </row>
-    <row r="7" spans="1:65" ht="26" x14ac:dyDescent="0.15">
-      <c r="A7" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="19">
-        <v>120</v>
-      </c>
-      <c r="C7" s="7">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="D7" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="45">
-        <v>80</v>
-      </c>
-      <c r="I7" s="16">
-        <v>40</v>
-      </c>
-      <c r="J7" s="16"/>
-      <c r="BM7" s="17"/>
-    </row>
-    <row r="8" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="19">
-        <v>30</v>
-      </c>
-      <c r="C8" s="7">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="D8" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="15">
-        <v>30</v>
-      </c>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="BM8" s="17"/>
-    </row>
-    <row r="9" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="19">
-        <v>30</v>
-      </c>
-      <c r="C9" s="7">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="D9" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="15">
-        <v>30</v>
-      </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="BM9" s="17"/>
-    </row>
-    <row r="10" spans="1:65" ht="26" x14ac:dyDescent="0.15">
-      <c r="A10" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="19">
-        <v>10</v>
-      </c>
-      <c r="C10" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D10" s="8">
-        <f>IF(C10&gt;B10,$C10-(SUM($E10:$BM10)),$B10-(SUM($E10:$BM10)))</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="H10" s="45">
-        <v>10</v>
-      </c>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="BM10" s="17"/>
-    </row>
-    <row r="11" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="19">
-        <v>20</v>
-      </c>
-      <c r="C11" s="7">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="D11" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="J11" s="45">
-        <v>20</v>
-      </c>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="BM11" s="17"/>
-    </row>
-    <row r="12" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="19">
-        <v>10</v>
-      </c>
-      <c r="C12" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D12" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="H12" s="45">
-        <v>10</v>
-      </c>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="BM12" s="17"/>
-    </row>
-    <row r="13" spans="1:65" ht="26" x14ac:dyDescent="0.15">
-      <c r="A13" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="19">
-        <v>10</v>
-      </c>
-      <c r="C13" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D13" s="8">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="Q13" s="16"/>
-      <c r="BM13" s="17"/>
-    </row>
-    <row r="14" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="19">
-        <v>15</v>
-      </c>
-      <c r="C14" s="7">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="D14" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="I14" s="45">
-        <v>15</v>
-      </c>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="BM14" s="17"/>
-    </row>
-    <row r="15" spans="1:65" ht="39" x14ac:dyDescent="0.15">
-      <c r="A15" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="19">
-        <v>10</v>
-      </c>
-      <c r="C15" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D15" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="G15" s="45">
-        <v>10</v>
-      </c>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="BM15" s="17"/>
-    </row>
-    <row r="16" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A16" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="19">
-        <v>20</v>
-      </c>
-      <c r="C16" s="7">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="D16" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="G16" s="45">
-        <v>20</v>
-      </c>
-      <c r="R16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="BM16" s="17"/>
-    </row>
-    <row r="17" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="BM17" s="17"/>
-    </row>
-    <row r="18" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="BM18" s="17"/>
-    </row>
-    <row r="19" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="BM19" s="17"/>
-    </row>
-    <row r="20" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="BM20" s="17"/>
-    </row>
-    <row r="21" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="BM21" s="17"/>
-    </row>
-    <row r="22" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="BM22" s="17"/>
-    </row>
-    <row r="23" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="BM23" s="17"/>
-    </row>
-    <row r="24" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="BM24" s="17"/>
-    </row>
-    <row r="25" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="BM25" s="17"/>
-    </row>
-    <row r="26" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="BM26" s="17"/>
-    </row>
-    <row r="27" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="15"/>
-      <c r="BM27" s="17"/>
-    </row>
-    <row r="28" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="BM28" s="17"/>
-    </row>
-    <row r="29" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="15"/>
-      <c r="BM29" s="17"/>
-    </row>
-    <row r="30" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="18"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D30" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="BM30" s="17"/>
-    </row>
-    <row r="31" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="18"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D31" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="15"/>
-      <c r="BM31" s="17"/>
-    </row>
-    <row r="32" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="18"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D32" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="15"/>
-      <c r="BM32" s="17"/>
-    </row>
-    <row r="33" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="18"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D33" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="15"/>
-      <c r="BM33" s="17"/>
-    </row>
-    <row r="34" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A34" s="20"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D34" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="23"/>
-      <c r="W34" s="23"/>
-      <c r="X34" s="23"/>
-      <c r="Y34" s="23"/>
-      <c r="Z34" s="23"/>
-      <c r="AA34" s="23"/>
-      <c r="AB34" s="23"/>
-      <c r="AC34" s="23"/>
-      <c r="AD34" s="23"/>
-      <c r="AE34" s="23"/>
-      <c r="AF34" s="23"/>
-      <c r="AG34" s="23"/>
-      <c r="AH34" s="23"/>
-      <c r="AI34" s="23"/>
-      <c r="AJ34" s="23"/>
-      <c r="AK34" s="23"/>
-      <c r="AL34" s="23"/>
-      <c r="AM34" s="23"/>
-      <c r="AN34" s="23"/>
-      <c r="AO34" s="23"/>
-      <c r="AP34" s="23"/>
-      <c r="AQ34" s="23"/>
-      <c r="AR34" s="23"/>
-      <c r="AS34" s="23"/>
-      <c r="AT34" s="23"/>
-      <c r="AU34" s="23"/>
-      <c r="AV34" s="23"/>
-      <c r="AW34" s="23"/>
-      <c r="AX34" s="23"/>
-      <c r="AY34" s="23"/>
-      <c r="AZ34" s="23"/>
-      <c r="BA34" s="23"/>
-      <c r="BB34" s="23"/>
-      <c r="BC34" s="23"/>
-      <c r="BD34" s="23"/>
-      <c r="BE34" s="23"/>
-      <c r="BF34" s="23"/>
-      <c r="BG34" s="23"/>
-      <c r="BH34" s="23"/>
-      <c r="BI34" s="23"/>
-      <c r="BJ34" s="23"/>
-      <c r="BK34" s="23"/>
-      <c r="BL34" s="23"/>
-      <c r="BM34" s="24"/>
-    </row>
-    <row r="35" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A35" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="26">
-        <f t="shared" ref="B35:D35" si="2">SUM(B3:B34)</f>
-        <v>415</v>
-      </c>
-      <c r="C35" s="27">
-        <f t="shared" si="2"/>
-        <v>415</v>
-      </c>
-      <c r="D35" s="27">
-        <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-      <c r="E35" s="28">
-        <f t="shared" ref="E35:BM35" si="3">SUM(E3:E19)</f>
-        <v>60</v>
-      </c>
-      <c r="F35" s="28">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="G35" s="28">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="H35" s="28">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="I35" s="28">
-        <f t="shared" si="3"/>
-        <v>55</v>
-      </c>
-      <c r="J35" s="28">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="K35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AC35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AI35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AJ35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AK35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AL35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AM35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AN35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AP35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AQ35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AR35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AS35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AT35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AU35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AV35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AW35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AX35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AY35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AZ35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BA35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BB35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BC35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BE35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BF35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BG35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BH35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BI35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BJ35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BK35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BL35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BM35" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:65" ht="16" x14ac:dyDescent="0.15">
-      <c r="A36" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="30">
-        <f>B35-SUM(E36:BL36)</f>
-        <v>0</v>
-      </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="33">
-        <v>69</v>
-      </c>
-      <c r="F36" s="35">
-        <v>70</v>
-      </c>
-      <c r="G36" s="35">
-        <v>69</v>
-      </c>
-      <c r="H36" s="35">
-        <v>69</v>
-      </c>
-      <c r="I36" s="35">
-        <v>69</v>
-      </c>
-      <c r="J36" s="35">
-        <v>69</v>
-      </c>
-      <c r="K36" s="35">
-        <v>0</v>
-      </c>
-      <c r="L36" s="35">
-        <v>0</v>
-      </c>
-      <c r="M36" s="35">
-        <v>0</v>
-      </c>
-      <c r="N36" s="35">
-        <v>0</v>
-      </c>
-      <c r="O36" s="35">
-        <v>0</v>
-      </c>
-      <c r="P36" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="35">
-        <v>0</v>
-      </c>
-      <c r="R36" s="35">
-        <v>0</v>
-      </c>
-      <c r="S36" s="35">
-        <v>0</v>
-      </c>
-      <c r="T36" s="35">
-        <v>0</v>
-      </c>
-      <c r="U36" s="35">
-        <v>0</v>
-      </c>
-      <c r="V36" s="35">
-        <v>0</v>
-      </c>
-      <c r="W36" s="35">
-        <v>0</v>
-      </c>
-      <c r="X36" s="35">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="35">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="35"/>
-      <c r="AA36" s="35"/>
-      <c r="AB36" s="35"/>
-      <c r="AC36" s="35"/>
-      <c r="AD36" s="35"/>
-      <c r="AE36" s="35"/>
-      <c r="AF36" s="35"/>
-      <c r="AG36" s="35"/>
-      <c r="AH36" s="35"/>
-      <c r="AI36" s="35"/>
-      <c r="AJ36" s="35"/>
-      <c r="AK36" s="35"/>
-      <c r="AL36" s="35"/>
-      <c r="AM36" s="35"/>
-      <c r="AN36" s="35"/>
-      <c r="AO36" s="35"/>
-      <c r="AP36" s="35"/>
-      <c r="AQ36" s="35"/>
-      <c r="AR36" s="35"/>
-      <c r="AS36" s="35"/>
-      <c r="AT36" s="35"/>
-      <c r="AU36" s="35"/>
-      <c r="AV36" s="35"/>
-      <c r="AW36" s="35"/>
-      <c r="AX36" s="35"/>
-      <c r="AY36" s="35"/>
-      <c r="AZ36" s="35"/>
-      <c r="BA36" s="35"/>
-      <c r="BB36" s="35"/>
-      <c r="BC36" s="35"/>
-      <c r="BD36" s="35"/>
-      <c r="BE36" s="35"/>
-      <c r="BF36" s="35"/>
-      <c r="BG36" s="35"/>
-      <c r="BH36" s="35"/>
-      <c r="BI36" s="35"/>
-      <c r="BJ36" s="35"/>
-      <c r="BK36" s="35"/>
-      <c r="BL36" s="35"/>
-      <c r="BM36" s="36"/>
-    </row>
-    <row r="37" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A37" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="40">
-        <f>B35</f>
-        <v>415</v>
-      </c>
-      <c r="E37" s="42">
-        <f t="shared" ref="E37:BM37" si="4">D37-E36</f>
-        <v>346</v>
-      </c>
-      <c r="F37" s="42">
-        <f t="shared" si="4"/>
-        <v>276</v>
-      </c>
-      <c r="G37" s="42">
-        <f t="shared" si="4"/>
-        <v>207</v>
-      </c>
-      <c r="H37" s="42">
-        <f t="shared" si="4"/>
-        <v>138</v>
-      </c>
-      <c r="I37" s="42">
-        <f t="shared" si="4"/>
-        <v>69</v>
-      </c>
-      <c r="J37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AH37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AJ37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AK37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AL37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AM37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AN37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AO37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AP37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AQ37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AR37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AS37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AT37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AU37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AV37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AW37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AX37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AY37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AZ37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BA37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BB37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BC37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BD37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BF37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BG37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BH37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BI37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BJ37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BK37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BL37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BM37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A38" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="40">
-        <f>C35</f>
-        <v>415</v>
-      </c>
-      <c r="E38" s="40">
-        <f>$C$35-SUM(E$3:E$34)</f>
-        <v>355</v>
-      </c>
-      <c r="F38" s="40">
-        <f t="shared" ref="F38:BM38" si="5">E38-SUM(F3:F34)</f>
-        <v>275</v>
-      </c>
-      <c r="G38" s="40">
-        <f t="shared" si="5"/>
-        <v>185</v>
-      </c>
-      <c r="H38" s="40">
-        <f t="shared" si="5"/>
-        <v>165</v>
-      </c>
-      <c r="I38" s="40">
-        <f t="shared" si="5"/>
-        <v>110</v>
-      </c>
-      <c r="J38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="K38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="L38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="M38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="N38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="O38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="P38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="Q38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="R38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="S38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="T38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="U38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="V38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="W38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="X38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="Y38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="Z38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="AA38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="AB38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="AC38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="AD38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="AE38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="AF38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="AG38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="AH38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="AI38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="AJ38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="AK38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="AL38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="AM38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="AN38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="AO38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="AP38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="AQ38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="AR38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="AS38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="AT38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="AU38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="AV38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="AW38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="AX38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="AY38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="AZ38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="BA38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="BB38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="BC38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="BD38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="BE38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="BF38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="BG38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="BH38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="BI38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="BJ38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="BK38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="BL38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="BM38" s="40">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:65" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="43"/>
-      <c r="R39" s="43"/>
-      <c r="S39" s="43"/>
-      <c r="T39" s="43"/>
-      <c r="U39" s="43"/>
-      <c r="V39" s="43"/>
-      <c r="W39" s="43"/>
-      <c r="X39" s="43"/>
-      <c r="Y39" s="43"/>
-      <c r="Z39" s="43"/>
-      <c r="AA39" s="43"/>
-      <c r="AB39" s="43"/>
-      <c r="AC39" s="43"/>
-      <c r="AD39" s="43"/>
-      <c r="AE39" s="43"/>
-      <c r="AF39" s="43"/>
-      <c r="AG39" s="43"/>
-      <c r="AH39" s="43"/>
-      <c r="AI39" s="43"/>
-      <c r="AJ39" s="43"/>
-      <c r="AK39" s="43"/>
-      <c r="AL39" s="43"/>
-      <c r="AM39" s="43"/>
-      <c r="AN39" s="43"/>
-      <c r="AO39" s="43"/>
-      <c r="AP39" s="43"/>
-      <c r="AQ39" s="43"/>
-      <c r="AR39" s="43"/>
-      <c r="AS39" s="43"/>
-      <c r="AT39" s="43"/>
-      <c r="AU39" s="43"/>
-      <c r="AV39" s="43"/>
-      <c r="AW39" s="43"/>
-      <c r="AX39" s="43"/>
-      <c r="AY39" s="43"/>
-      <c r="AZ39" s="43"/>
-      <c r="BA39" s="43"/>
-      <c r="BB39" s="43"/>
-      <c r="BC39" s="43"/>
-      <c r="BD39" s="43"/>
-      <c r="BE39" s="43"/>
-      <c r="BF39" s="43"/>
-      <c r="BG39" s="43"/>
-      <c r="BH39" s="43"/>
-      <c r="BI39" s="43"/>
-      <c r="BJ39" s="43"/>
-      <c r="BK39" s="43"/>
-      <c r="BL39" s="43"/>
-      <c r="BM39" s="43"/>
-    </row>
-    <row r="40" spans="1:65" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="43"/>
-      <c r="P40" s="43"/>
-      <c r="Q40" s="43"/>
-      <c r="R40" s="43"/>
-      <c r="S40" s="43"/>
-      <c r="T40" s="43"/>
-      <c r="U40" s="43"/>
-      <c r="V40" s="43"/>
-      <c r="W40" s="43"/>
-      <c r="X40" s="43"/>
-      <c r="Y40" s="43"/>
-      <c r="Z40" s="43"/>
-      <c r="AA40" s="43"/>
-      <c r="AB40" s="43"/>
-      <c r="AC40" s="43"/>
-      <c r="AD40" s="43"/>
-      <c r="AE40" s="43"/>
-      <c r="AF40" s="43"/>
-      <c r="AG40" s="43"/>
-      <c r="AH40" s="43"/>
-      <c r="AI40" s="43"/>
-      <c r="AJ40" s="43"/>
-      <c r="AK40" s="43"/>
-      <c r="AL40" s="43"/>
-      <c r="AM40" s="43"/>
-      <c r="AN40" s="43"/>
-      <c r="AO40" s="43"/>
-      <c r="AP40" s="43"/>
-      <c r="AQ40" s="43"/>
-      <c r="AR40" s="43"/>
-      <c r="AS40" s="43"/>
-      <c r="AT40" s="43"/>
-      <c r="AU40" s="43"/>
-      <c r="AV40" s="43"/>
-      <c r="AW40" s="43"/>
-      <c r="AX40" s="43"/>
-      <c r="AY40" s="43"/>
-      <c r="AZ40" s="43"/>
-      <c r="BA40" s="43"/>
-      <c r="BB40" s="43"/>
-      <c r="BC40" s="43"/>
-      <c r="BD40" s="43"/>
-      <c r="BE40" s="43"/>
-      <c r="BF40" s="43"/>
-      <c r="BG40" s="43"/>
-      <c r="BH40" s="43"/>
-      <c r="BI40" s="43"/>
-      <c r="BJ40" s="43"/>
-      <c r="BK40" s="43"/>
-      <c r="BL40" s="43"/>
-      <c r="BM40" s="43"/>
-    </row>
-    <row r="41" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A41" s="44"/>
-    </row>
-    <row r="42" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A42" s="44"/>
-    </row>
-    <row r="43" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A43" s="44"/>
-    </row>
-    <row r="44" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A44" s="44"/>
-    </row>
-    <row r="45" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A45" s="44"/>
-    </row>
-    <row r="46" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A46" s="44"/>
-    </row>
-    <row r="47" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A47" s="44"/>
-    </row>
-    <row r="48" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A48" s="44"/>
-    </row>
-    <row r="49" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A49" s="44"/>
-    </row>
-    <row r="50" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A50" s="44"/>
-    </row>
-    <row r="51" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A51" s="44"/>
-    </row>
-    <row r="52" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A52" s="44"/>
-    </row>
-    <row r="53" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A53" s="44"/>
-    </row>
-    <row r="54" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A54" s="44"/>
-    </row>
-    <row r="55" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A55" s="44"/>
-    </row>
-    <row r="56" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A56" s="44"/>
-    </row>
-    <row r="57" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A57" s="44"/>
-    </row>
-    <row r="58" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A58" s="44"/>
-    </row>
-    <row r="59" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A59" s="44"/>
-    </row>
-    <row r="60" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A60" s="44"/>
-    </row>
-    <row r="61" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A61" s="44"/>
-    </row>
-    <row r="62" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A62" s="44"/>
-    </row>
-    <row r="63" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A63" s="44"/>
-    </row>
-    <row r="64" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A64" s="44"/>
-    </row>
-    <row r="65" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A65" s="44"/>
-    </row>
-    <row r="66" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A66" s="44"/>
-    </row>
-    <row r="67" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A67" s="44"/>
-    </row>
-    <row r="68" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A68" s="44"/>
-    </row>
-    <row r="69" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A69" s="44"/>
-    </row>
-    <row r="70" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A70" s="44"/>
-    </row>
-    <row r="71" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A71" s="44"/>
-    </row>
-    <row r="72" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A72" s="44"/>
-    </row>
-    <row r="73" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A73" s="44"/>
-    </row>
-    <row r="74" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A74" s="44"/>
-    </row>
-    <row r="75" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A75" s="44"/>
-    </row>
-    <row r="76" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A76" s="44"/>
-    </row>
-    <row r="77" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A77" s="44"/>
-    </row>
-    <row r="78" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A78" s="44"/>
-    </row>
-    <row r="79" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A79" s="44"/>
-    </row>
-    <row r="80" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A80" s="44"/>
-    </row>
-    <row r="81" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A81" s="44"/>
-    </row>
-    <row r="82" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A82" s="44"/>
-    </row>
-    <row r="83" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A83" s="44"/>
-    </row>
-    <row r="84" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A84" s="44"/>
-    </row>
-    <row r="85" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A85" s="44"/>
-    </row>
-    <row r="86" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A86" s="44"/>
-    </row>
-    <row r="87" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A87" s="44"/>
-    </row>
-    <row r="88" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A88" s="44"/>
-    </row>
-    <row r="89" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A89" s="44"/>
-    </row>
-    <row r="90" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A90" s="44"/>
-    </row>
-    <row r="91" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A91" s="44"/>
-    </row>
-    <row r="92" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A92" s="44"/>
-    </row>
-    <row r="93" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A93" s="44"/>
-    </row>
-    <row r="94" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A94" s="44"/>
-    </row>
-    <row r="95" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A95" s="44"/>
-    </row>
-    <row r="96" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A96" s="44"/>
-    </row>
-    <row r="97" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A97" s="44"/>
-    </row>
-    <row r="98" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A98" s="44"/>
-    </row>
-    <row r="99" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A99" s="44"/>
-    </row>
-    <row r="100" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A100" s="44"/>
-    </row>
-    <row r="101" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A101" s="44"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-  </mergeCells>
-  <conditionalFormatting sqref="A37:BM38">
     <cfRule type="cellIs" dxfId="35" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -8103,25 +5654,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" style="46" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="4.83203125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" style="46" customWidth="1"/>
-    <col min="6" max="25" width="5.5" style="46" customWidth="1"/>
-    <col min="26" max="64" width="5.5" style="46" hidden="1" customWidth="1"/>
-    <col min="65" max="65" width="5.5" style="46" customWidth="1"/>
-    <col min="66" max="16384" width="17.33203125" style="46"/>
+    <col min="1" max="1" width="26.6640625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="45" customWidth="1"/>
+    <col min="6" max="25" width="5.5" style="45" customWidth="1"/>
+    <col min="26" max="64" width="5.5" style="45" hidden="1" customWidth="1"/>
+    <col min="65" max="65" width="5.5" style="45" customWidth="1"/>
+    <col min="66" max="16384" width="17.33203125" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="33" x14ac:dyDescent="0.15">
@@ -8388,20 +5939,20 @@
       <c r="BL2" s="3"/>
       <c r="BM2" s="3"/>
     </row>
-    <row r="3" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:65" ht="26" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" s="6">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C3" s="7">
         <f t="shared" ref="C3:C34" si="0">IF(B3&lt;SUM(E3:BL3),SUM(E3:BL3),B3)</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D3" s="8">
         <f t="shared" ref="D3:D34" si="1">IF(C3&gt;B3,$C3-(SUM($E3:$BM3)),$B3-(SUM($E3:$BM3)))</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="11"/>
@@ -8467,59 +6018,63 @@
     </row>
     <row r="4" spans="1:65" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="18" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B4" s="19">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C4" s="7">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D4" s="8">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="G4" s="16">
+        <v>10</v>
+      </c>
       <c r="BM4" s="17"/>
     </row>
     <row r="5" spans="1:65" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B5" s="19">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C5" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D5" s="8">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="G5" s="16">
+        <v>50</v>
+      </c>
       <c r="H5" s="16"/>
       <c r="BM5" s="17"/>
     </row>
     <row r="6" spans="1:65" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B6" s="19">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E6" s="15"/>
       <c r="H6" s="16"/>
@@ -8527,159 +6082,203 @@
     </row>
     <row r="7" spans="1:65" ht="26" x14ac:dyDescent="0.15">
       <c r="A7" s="18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B7" s="19">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E7" s="15"/>
-      <c r="I7" s="16"/>
+      <c r="F7" s="45">
+        <v>80</v>
+      </c>
+      <c r="I7" s="16">
+        <v>40</v>
+      </c>
       <c r="J7" s="16"/>
       <c r="BM7" s="17"/>
     </row>
-    <row r="8" spans="1:65" ht="26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:65" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B8" s="19">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="E8" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="15">
+        <v>30</v>
+      </c>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
       <c r="BM8" s="17"/>
     </row>
     <row r="9" spans="1:65" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B9" s="19">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="E9" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
+        <v>30</v>
+      </c>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
       <c r="BM9" s="17"/>
     </row>
-    <row r="10" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:65" ht="26" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B10" s="19">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="D10" s="8">
         <f>IF(C10&gt;B10,$C10-(SUM($E10:$BM10)),$B10-(SUM($E10:$BM10)))</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E10" s="15"/>
+      <c r="H10" s="45">
+        <v>10</v>
+      </c>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="BM10" s="17"/>
     </row>
     <row r="11" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="19">
+        <v>20</v>
+      </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D11" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E11" s="15"/>
+      <c r="J11" s="45">
+        <v>20</v>
+      </c>
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
       <c r="BM11" s="17"/>
     </row>
     <row r="12" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="19">
+        <v>10</v>
+      </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D12" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E12" s="15"/>
+      <c r="H12" s="45">
+        <v>10</v>
+      </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
       <c r="BM12" s="17"/>
     </row>
-    <row r="13" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
+    <row r="13" spans="1:65" ht="26" x14ac:dyDescent="0.15">
+      <c r="A13" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="19">
+        <v>10</v>
+      </c>
       <c r="C13" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D13" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E13" s="15"/>
       <c r="Q13" s="16"/>
       <c r="BM13" s="17"/>
     </row>
     <row r="14" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="19">
+        <v>15</v>
+      </c>
       <c r="C14" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D14" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E14" s="15"/>
+      <c r="I14" s="45">
+        <v>15</v>
+      </c>
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
       <c r="BM14" s="17"/>
     </row>
-    <row r="15" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
+    <row r="15" spans="1:65" ht="39" x14ac:dyDescent="0.15">
+      <c r="A15" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="19">
+        <v>10</v>
+      </c>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D15" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E15" s="15"/>
+      <c r="G15" s="45">
+        <v>10</v>
+      </c>
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
       <c r="T15" s="16"/>
@@ -8687,17 +6286,24 @@
       <c r="BM15" s="17"/>
     </row>
     <row r="16" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="19">
+        <v>20</v>
+      </c>
       <c r="C16" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D16" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E16" s="15"/>
+      <c r="G16" s="45">
+        <v>20</v>
+      </c>
       <c r="R16" s="16"/>
       <c r="U16" s="16"/>
       <c r="V16" s="16"/>
@@ -9027,39 +6633,39 @@
       </c>
       <c r="B35" s="26">
         <f t="shared" ref="B35:D35" si="2">SUM(B3:B34)</f>
-        <v>530</v>
+        <v>415</v>
       </c>
       <c r="C35" s="27">
         <f t="shared" si="2"/>
-        <v>530</v>
+        <v>415</v>
       </c>
       <c r="D35" s="27">
         <f t="shared" si="2"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="E35" s="28">
         <f t="shared" ref="E35:BM35" si="3">SUM(E3:E19)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F35" s="28">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G35" s="28">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H35" s="28">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I35" s="28">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="J35" s="28">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K35" s="28">
         <f t="shared" si="3"/>
@@ -9293,22 +6899,22 @@
       <c r="C36" s="31"/>
       <c r="D36" s="32"/>
       <c r="E36" s="33">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="F36" s="35">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G36" s="35">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="H36" s="35">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="I36" s="35">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="J36" s="35">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="K36" s="35">
         <v>0</v>
@@ -9406,27 +7012,27 @@
       </c>
       <c r="D37" s="40">
         <f>B35</f>
-        <v>530</v>
+        <v>415</v>
       </c>
       <c r="E37" s="42">
         <f t="shared" ref="E37:BM37" si="4">D37-E36</f>
-        <v>442</v>
+        <v>346</v>
       </c>
       <c r="F37" s="42">
         <f t="shared" si="4"/>
-        <v>353</v>
+        <v>276</v>
       </c>
       <c r="G37" s="42">
         <f t="shared" si="4"/>
-        <v>265</v>
+        <v>207</v>
       </c>
       <c r="H37" s="42">
         <f t="shared" si="4"/>
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="I37" s="42">
         <f t="shared" si="4"/>
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="J37" s="42">
         <f t="shared" si="4"/>
@@ -9663,251 +7269,251 @@
       </c>
       <c r="D38" s="40">
         <f>C35</f>
-        <v>530</v>
+        <v>415</v>
       </c>
       <c r="E38" s="40">
         <f>$C$35-SUM(E$3:E$34)</f>
-        <v>530</v>
+        <v>355</v>
       </c>
       <c r="F38" s="40">
         <f t="shared" ref="F38:BM38" si="5">E38-SUM(F3:F34)</f>
-        <v>530</v>
+        <v>275</v>
       </c>
       <c r="G38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>185</v>
       </c>
       <c r="H38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>165</v>
       </c>
       <c r="I38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>110</v>
       </c>
       <c r="J38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="K38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="L38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="M38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="N38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="O38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="P38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="Q38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="R38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="S38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="T38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="U38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="V38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="W38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="X38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="Y38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="Z38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="AA38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="AB38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="AC38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="AD38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="AE38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="AF38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="AG38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="AH38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="AI38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="AJ38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="AK38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="AL38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="AM38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="AN38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="AO38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="AP38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="AQ38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="AR38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="AS38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="AT38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="AU38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="AV38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="AW38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="AX38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="AY38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="AZ38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="BA38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="BB38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="BC38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="BD38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="BE38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="BF38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="BG38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="BH38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="BI38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="BJ38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="BK38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="BL38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="BM38" s="40">
         <f t="shared" si="5"/>
-        <v>530</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:65" ht="18" x14ac:dyDescent="0.2">
@@ -10240,57 +7846,2268 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:BM34">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D34">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D34">
-    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D34">
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A40" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BM101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" style="46" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="46" customWidth="1"/>
+    <col min="6" max="25" width="5.5" style="46" customWidth="1"/>
+    <col min="26" max="64" width="5.5" style="46" hidden="1" customWidth="1"/>
+    <col min="65" max="65" width="5.5" style="46" customWidth="1"/>
+    <col min="66" max="16384" width="17.33203125" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:65" ht="33" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1">
+        <v>11</v>
+      </c>
+      <c r="P1" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>13</v>
+      </c>
+      <c r="R1" s="1">
+        <v>14</v>
+      </c>
+      <c r="S1" s="1">
+        <v>15</v>
+      </c>
+      <c r="T1" s="1">
+        <v>16</v>
+      </c>
+      <c r="U1" s="1">
+        <v>17</v>
+      </c>
+      <c r="V1" s="1">
+        <v>18</v>
+      </c>
+      <c r="W1" s="1">
+        <v>19</v>
+      </c>
+      <c r="X1" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>6</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>7</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>8</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>9</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>10</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>11</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>12</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>13</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>14</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>15</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>16</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>17</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>19</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>20</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>21</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>22</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>23</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>24</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>25</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>26</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>27</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>28</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>29</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
+      <c r="BI2" s="3"/>
+      <c r="BJ2" s="3"/>
+      <c r="BK2" s="3"/>
+      <c r="BL2" s="3"/>
+      <c r="BM2" s="3"/>
+    </row>
+    <row r="3" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="6">
+        <v>30</v>
+      </c>
+      <c r="C3" s="7">
+        <f t="shared" ref="C3:C34" si="0">IF(B3&lt;SUM(E3:BL3),SUM(E3:BL3),B3)</f>
+        <v>30</v>
+      </c>
+      <c r="D3" s="8">
+        <f t="shared" ref="D3:D34" si="1">IF(C3&gt;B3,$C3-(SUM($E3:$BM3)),$B3-(SUM($E3:$BM3)))</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>30</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="11"/>
+      <c r="AP3" s="11"/>
+      <c r="AQ3" s="11"/>
+      <c r="AR3" s="11"/>
+      <c r="AS3" s="11"/>
+      <c r="AT3" s="11"/>
+      <c r="AU3" s="11"/>
+      <c r="AV3" s="11"/>
+      <c r="AW3" s="11"/>
+      <c r="AX3" s="11"/>
+      <c r="AY3" s="11"/>
+      <c r="AZ3" s="11"/>
+      <c r="BA3" s="11"/>
+      <c r="BB3" s="11"/>
+      <c r="BC3" s="11"/>
+      <c r="BD3" s="11"/>
+      <c r="BE3" s="11"/>
+      <c r="BF3" s="11"/>
+      <c r="BG3" s="11"/>
+      <c r="BH3" s="11"/>
+      <c r="BI3" s="11"/>
+      <c r="BJ3" s="11"/>
+      <c r="BK3" s="11"/>
+      <c r="BL3" s="11"/>
+      <c r="BM3" s="12"/>
+    </row>
+    <row r="4" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="19">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D4" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>20</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="BM4" s="17"/>
+    </row>
+    <row r="5" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A5" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="19">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D5" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>10</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="BM5" s="17"/>
+    </row>
+    <row r="6" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A6" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="19">
+        <v>20</v>
+      </c>
+      <c r="C6" s="7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D6" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>20</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="BM6" s="17"/>
+    </row>
+    <row r="7" spans="1:65" ht="26" x14ac:dyDescent="0.15">
+      <c r="A7" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="19">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="BM7" s="17"/>
+    </row>
+    <row r="8" spans="1:65" ht="26" x14ac:dyDescent="0.15">
+      <c r="A8" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="19">
+        <v>40</v>
+      </c>
+      <c r="C8" s="7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="BM8" s="17"/>
+    </row>
+    <row r="9" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A9" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="19">
+        <v>200</v>
+      </c>
+      <c r="C9" s="7">
+        <v>200</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E9" s="15">
+        <v>170</v>
+      </c>
+      <c r="F9" s="46">
+        <v>-20</v>
+      </c>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="BM9" s="17"/>
+    </row>
+    <row r="10" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A10" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="19">
+        <v>200</v>
+      </c>
+      <c r="C10" s="7">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="D10" s="8">
+        <f>IF(C10&gt;B10,$C10-(SUM($E10:$BM10)),$B10-(SUM($E10:$BM10)))</f>
+        <v>200</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="BM10" s="17"/>
+    </row>
+    <row r="11" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="BM11" s="17"/>
+    </row>
+    <row r="12" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="BM12" s="17"/>
+    </row>
+    <row r="13" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="Q13" s="16"/>
+      <c r="BM13" s="17"/>
+    </row>
+    <row r="14" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="BM14" s="17"/>
+    </row>
+    <row r="15" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="BM15" s="17"/>
+    </row>
+    <row r="16" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="R16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="BM16" s="17"/>
+    </row>
+    <row r="17" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="BM17" s="17"/>
+    </row>
+    <row r="18" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="BM18" s="17"/>
+    </row>
+    <row r="19" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="BM19" s="17"/>
+    </row>
+    <row r="20" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="BM20" s="17"/>
+    </row>
+    <row r="21" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="BM21" s="17"/>
+    </row>
+    <row r="22" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="BM22" s="17"/>
+    </row>
+    <row r="23" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="BM23" s="17"/>
+    </row>
+    <row r="24" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="BM24" s="17"/>
+    </row>
+    <row r="25" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="BM25" s="17"/>
+    </row>
+    <row r="26" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="BM26" s="17"/>
+    </row>
+    <row r="27" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="BM27" s="17"/>
+    </row>
+    <row r="28" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="BM28" s="17"/>
+    </row>
+    <row r="29" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="BM29" s="17"/>
+    </row>
+    <row r="30" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="BM30" s="17"/>
+    </row>
+    <row r="31" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="BM31" s="17"/>
+    </row>
+    <row r="32" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="15"/>
+      <c r="BM32" s="17"/>
+    </row>
+    <row r="33" spans="1:65" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="18"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="BM33" s="17"/>
+    </row>
+    <row r="34" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="22"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="23"/>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="23"/>
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="23"/>
+      <c r="AG34" s="23"/>
+      <c r="AH34" s="23"/>
+      <c r="AI34" s="23"/>
+      <c r="AJ34" s="23"/>
+      <c r="AK34" s="23"/>
+      <c r="AL34" s="23"/>
+      <c r="AM34" s="23"/>
+      <c r="AN34" s="23"/>
+      <c r="AO34" s="23"/>
+      <c r="AP34" s="23"/>
+      <c r="AQ34" s="23"/>
+      <c r="AR34" s="23"/>
+      <c r="AS34" s="23"/>
+      <c r="AT34" s="23"/>
+      <c r="AU34" s="23"/>
+      <c r="AV34" s="23"/>
+      <c r="AW34" s="23"/>
+      <c r="AX34" s="23"/>
+      <c r="AY34" s="23"/>
+      <c r="AZ34" s="23"/>
+      <c r="BA34" s="23"/>
+      <c r="BB34" s="23"/>
+      <c r="BC34" s="23"/>
+      <c r="BD34" s="23"/>
+      <c r="BE34" s="23"/>
+      <c r="BF34" s="23"/>
+      <c r="BG34" s="23"/>
+      <c r="BH34" s="23"/>
+      <c r="BI34" s="23"/>
+      <c r="BJ34" s="23"/>
+      <c r="BK34" s="23"/>
+      <c r="BL34" s="23"/>
+      <c r="BM34" s="24"/>
+    </row>
+    <row r="35" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A35" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="26">
+        <f t="shared" ref="B35:D35" si="2">SUM(B3:B34)</f>
+        <v>530</v>
+      </c>
+      <c r="C35" s="27">
+        <f t="shared" si="2"/>
+        <v>530</v>
+      </c>
+      <c r="D35" s="27">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="E35" s="28">
+        <f t="shared" ref="E35:BM35" si="3">SUM(E3:E19)</f>
+        <v>250</v>
+      </c>
+      <c r="F35" s="28">
+        <f t="shared" si="3"/>
+        <v>-20</v>
+      </c>
+      <c r="G35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AM35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AN35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AO35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AR35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AS35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AT35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AU35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AV35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AW35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AX35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AY35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AZ35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BA35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BB35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BC35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BE35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BF35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BG35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BH35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BI35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BJ35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BK35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BL35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BM35" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:65" ht="16" x14ac:dyDescent="0.15">
+      <c r="A36" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="30">
+        <f>B35-SUM(E36:BL36)</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="31"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="33">
+        <v>88</v>
+      </c>
+      <c r="F36" s="35">
+        <v>89</v>
+      </c>
+      <c r="G36" s="35">
+        <v>88</v>
+      </c>
+      <c r="H36" s="35">
+        <v>88</v>
+      </c>
+      <c r="I36" s="35">
+        <v>89</v>
+      </c>
+      <c r="J36" s="35">
+        <v>88</v>
+      </c>
+      <c r="K36" s="35">
+        <v>0</v>
+      </c>
+      <c r="L36" s="35">
+        <v>0</v>
+      </c>
+      <c r="M36" s="35">
+        <v>0</v>
+      </c>
+      <c r="N36" s="35">
+        <v>0</v>
+      </c>
+      <c r="O36" s="35">
+        <v>0</v>
+      </c>
+      <c r="P36" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="35">
+        <v>0</v>
+      </c>
+      <c r="R36" s="35">
+        <v>0</v>
+      </c>
+      <c r="S36" s="35">
+        <v>0</v>
+      </c>
+      <c r="T36" s="35">
+        <v>0</v>
+      </c>
+      <c r="U36" s="35">
+        <v>0</v>
+      </c>
+      <c r="V36" s="35">
+        <v>0</v>
+      </c>
+      <c r="W36" s="35">
+        <v>0</v>
+      </c>
+      <c r="X36" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="35"/>
+      <c r="AA36" s="35"/>
+      <c r="AB36" s="35"/>
+      <c r="AC36" s="35"/>
+      <c r="AD36" s="35"/>
+      <c r="AE36" s="35"/>
+      <c r="AF36" s="35"/>
+      <c r="AG36" s="35"/>
+      <c r="AH36" s="35"/>
+      <c r="AI36" s="35"/>
+      <c r="AJ36" s="35"/>
+      <c r="AK36" s="35"/>
+      <c r="AL36" s="35"/>
+      <c r="AM36" s="35"/>
+      <c r="AN36" s="35"/>
+      <c r="AO36" s="35"/>
+      <c r="AP36" s="35"/>
+      <c r="AQ36" s="35"/>
+      <c r="AR36" s="35"/>
+      <c r="AS36" s="35"/>
+      <c r="AT36" s="35"/>
+      <c r="AU36" s="35"/>
+      <c r="AV36" s="35"/>
+      <c r="AW36" s="35"/>
+      <c r="AX36" s="35"/>
+      <c r="AY36" s="35"/>
+      <c r="AZ36" s="35"/>
+      <c r="BA36" s="35"/>
+      <c r="BB36" s="35"/>
+      <c r="BC36" s="35"/>
+      <c r="BD36" s="35"/>
+      <c r="BE36" s="35"/>
+      <c r="BF36" s="35"/>
+      <c r="BG36" s="35"/>
+      <c r="BH36" s="35"/>
+      <c r="BI36" s="35"/>
+      <c r="BJ36" s="35"/>
+      <c r="BK36" s="35"/>
+      <c r="BL36" s="35"/>
+      <c r="BM36" s="36"/>
+    </row>
+    <row r="37" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A37" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="40"/>
+      <c r="C37" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="40">
+        <f>B35</f>
+        <v>530</v>
+      </c>
+      <c r="E37" s="42">
+        <f t="shared" ref="E37:BM37" si="4">D37-E36</f>
+        <v>442</v>
+      </c>
+      <c r="F37" s="42">
+        <f t="shared" si="4"/>
+        <v>353</v>
+      </c>
+      <c r="G37" s="42">
+        <f t="shared" si="4"/>
+        <v>265</v>
+      </c>
+      <c r="H37" s="42">
+        <f t="shared" si="4"/>
+        <v>177</v>
+      </c>
+      <c r="I37" s="42">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="J37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AL37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AN37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AO37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AP37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AR37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AS37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AT37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AU37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AV37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AW37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AX37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AY37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AZ37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BA37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BB37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BC37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BD37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BF37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BG37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BH37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BI37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BJ37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BK37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BL37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BM37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A38" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="40"/>
+      <c r="C38" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="40">
+        <f>C35</f>
+        <v>530</v>
+      </c>
+      <c r="E38" s="40">
+        <f>$C$35-SUM(E$3:E$34)</f>
+        <v>280</v>
+      </c>
+      <c r="F38" s="40">
+        <f t="shared" ref="F38:BM38" si="5">E38-SUM(F3:F34)</f>
+        <v>300</v>
+      </c>
+      <c r="G38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="H38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="I38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="J38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="K38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="L38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="M38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="N38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="O38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="P38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="Q38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="R38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="S38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="T38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="U38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="V38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="W38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="X38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="Y38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="Z38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="AA38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="AB38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="AC38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="AD38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="AE38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="AF38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="AG38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="AH38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="AI38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="AJ38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="AK38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="AL38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="AM38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="AN38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="AO38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="AP38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="AQ38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="AR38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="AS38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="AT38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="AU38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="AV38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="AW38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="AX38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="AY38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="AZ38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="BA38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="BB38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="BC38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="BD38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="BE38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="BF38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="BG38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="BH38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="BI38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="BJ38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="BK38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="BL38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="BM38" s="40">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:65" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="43"/>
+      <c r="U39" s="43"/>
+      <c r="V39" s="43"/>
+      <c r="W39" s="43"/>
+      <c r="X39" s="43"/>
+      <c r="Y39" s="43"/>
+      <c r="Z39" s="43"/>
+      <c r="AA39" s="43"/>
+      <c r="AB39" s="43"/>
+      <c r="AC39" s="43"/>
+      <c r="AD39" s="43"/>
+      <c r="AE39" s="43"/>
+      <c r="AF39" s="43"/>
+      <c r="AG39" s="43"/>
+      <c r="AH39" s="43"/>
+      <c r="AI39" s="43"/>
+      <c r="AJ39" s="43"/>
+      <c r="AK39" s="43"/>
+      <c r="AL39" s="43"/>
+      <c r="AM39" s="43"/>
+      <c r="AN39" s="43"/>
+      <c r="AO39" s="43"/>
+      <c r="AP39" s="43"/>
+      <c r="AQ39" s="43"/>
+      <c r="AR39" s="43"/>
+      <c r="AS39" s="43"/>
+      <c r="AT39" s="43"/>
+      <c r="AU39" s="43"/>
+      <c r="AV39" s="43"/>
+      <c r="AW39" s="43"/>
+      <c r="AX39" s="43"/>
+      <c r="AY39" s="43"/>
+      <c r="AZ39" s="43"/>
+      <c r="BA39" s="43"/>
+      <c r="BB39" s="43"/>
+      <c r="BC39" s="43"/>
+      <c r="BD39" s="43"/>
+      <c r="BE39" s="43"/>
+      <c r="BF39" s="43"/>
+      <c r="BG39" s="43"/>
+      <c r="BH39" s="43"/>
+      <c r="BI39" s="43"/>
+      <c r="BJ39" s="43"/>
+      <c r="BK39" s="43"/>
+      <c r="BL39" s="43"/>
+      <c r="BM39" s="43"/>
+    </row>
+    <row r="40" spans="1:65" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="43"/>
+      <c r="R40" s="43"/>
+      <c r="S40" s="43"/>
+      <c r="T40" s="43"/>
+      <c r="U40" s="43"/>
+      <c r="V40" s="43"/>
+      <c r="W40" s="43"/>
+      <c r="X40" s="43"/>
+      <c r="Y40" s="43"/>
+      <c r="Z40" s="43"/>
+      <c r="AA40" s="43"/>
+      <c r="AB40" s="43"/>
+      <c r="AC40" s="43"/>
+      <c r="AD40" s="43"/>
+      <c r="AE40" s="43"/>
+      <c r="AF40" s="43"/>
+      <c r="AG40" s="43"/>
+      <c r="AH40" s="43"/>
+      <c r="AI40" s="43"/>
+      <c r="AJ40" s="43"/>
+      <c r="AK40" s="43"/>
+      <c r="AL40" s="43"/>
+      <c r="AM40" s="43"/>
+      <c r="AN40" s="43"/>
+      <c r="AO40" s="43"/>
+      <c r="AP40" s="43"/>
+      <c r="AQ40" s="43"/>
+      <c r="AR40" s="43"/>
+      <c r="AS40" s="43"/>
+      <c r="AT40" s="43"/>
+      <c r="AU40" s="43"/>
+      <c r="AV40" s="43"/>
+      <c r="AW40" s="43"/>
+      <c r="AX40" s="43"/>
+      <c r="AY40" s="43"/>
+      <c r="AZ40" s="43"/>
+      <c r="BA40" s="43"/>
+      <c r="BB40" s="43"/>
+      <c r="BC40" s="43"/>
+      <c r="BD40" s="43"/>
+      <c r="BE40" s="43"/>
+      <c r="BF40" s="43"/>
+      <c r="BG40" s="43"/>
+      <c r="BH40" s="43"/>
+      <c r="BI40" s="43"/>
+      <c r="BJ40" s="43"/>
+      <c r="BK40" s="43"/>
+      <c r="BL40" s="43"/>
+      <c r="BM40" s="43"/>
+    </row>
+    <row r="41" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A41" s="44"/>
+    </row>
+    <row r="42" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A42" s="44"/>
+    </row>
+    <row r="43" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A43" s="44"/>
+    </row>
+    <row r="44" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A44" s="44"/>
+    </row>
+    <row r="45" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A45" s="44"/>
+    </row>
+    <row r="46" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A46" s="44"/>
+    </row>
+    <row r="47" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A47" s="44"/>
+    </row>
+    <row r="48" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+      <c r="A48" s="44"/>
+    </row>
+    <row r="49" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A49" s="44"/>
+    </row>
+    <row r="50" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A50" s="44"/>
+    </row>
+    <row r="51" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A51" s="44"/>
+    </row>
+    <row r="52" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A52" s="44"/>
+    </row>
+    <row r="53" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A53" s="44"/>
+    </row>
+    <row r="54" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A54" s="44"/>
+    </row>
+    <row r="55" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A55" s="44"/>
+    </row>
+    <row r="56" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A56" s="44"/>
+    </row>
+    <row r="57" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A57" s="44"/>
+    </row>
+    <row r="58" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A58" s="44"/>
+    </row>
+    <row r="59" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A59" s="44"/>
+    </row>
+    <row r="60" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A60" s="44"/>
+    </row>
+    <row r="61" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A61" s="44"/>
+    </row>
+    <row r="62" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A62" s="44"/>
+    </row>
+    <row r="63" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A63" s="44"/>
+    </row>
+    <row r="64" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A64" s="44"/>
+    </row>
+    <row r="65" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A65" s="44"/>
+    </row>
+    <row r="66" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A66" s="44"/>
+    </row>
+    <row r="67" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A67" s="44"/>
+    </row>
+    <row r="68" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A68" s="44"/>
+    </row>
+    <row r="69" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A69" s="44"/>
+    </row>
+    <row r="70" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A70" s="44"/>
+    </row>
+    <row r="71" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A71" s="44"/>
+    </row>
+    <row r="72" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A72" s="44"/>
+    </row>
+    <row r="73" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A73" s="44"/>
+    </row>
+    <row r="74" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A74" s="44"/>
+    </row>
+    <row r="75" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A75" s="44"/>
+    </row>
+    <row r="76" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A76" s="44"/>
+    </row>
+    <row r="77" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A77" s="44"/>
+    </row>
+    <row r="78" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A78" s="44"/>
+    </row>
+    <row r="79" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A79" s="44"/>
+    </row>
+    <row r="80" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A80" s="44"/>
+    </row>
+    <row r="81" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A81" s="44"/>
+    </row>
+    <row r="82" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A82" s="44"/>
+    </row>
+    <row r="83" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A83" s="44"/>
+    </row>
+    <row r="84" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A84" s="44"/>
+    </row>
+    <row r="85" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A85" s="44"/>
+    </row>
+    <row r="86" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A86" s="44"/>
+    </row>
+    <row r="87" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A87" s="44"/>
+    </row>
+    <row r="88" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A88" s="44"/>
+    </row>
+    <row r="89" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A89" s="44"/>
+    </row>
+    <row r="90" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A90" s="44"/>
+    </row>
+    <row r="91" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A91" s="44"/>
+    </row>
+    <row r="92" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A92" s="44"/>
+    </row>
+    <row r="93" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A93" s="44"/>
+    </row>
+    <row r="94" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A94" s="44"/>
+    </row>
+    <row r="95" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A95" s="44"/>
+    </row>
+    <row r="96" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A96" s="44"/>
+    </row>
+    <row r="97" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A97" s="44"/>
+    </row>
+    <row r="98" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A98" s="44"/>
+    </row>
+    <row r="99" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A99" s="44"/>
+    </row>
+    <row r="100" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A100" s="44"/>
+    </row>
+    <row r="101" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A101" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A37:BM38">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:BM34">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D34">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="greaterThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D34">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D34">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Document/SprintBurnDown.xlsx
+++ b/Document/SprintBurnDown.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>Task</t>
   </si>
@@ -160,7 +160,10 @@
     <t>Create summarize report</t>
   </si>
   <si>
-    <t>Write group report</t>
+    <t>Add char counter for comment</t>
+  </si>
+  <si>
+    <t>Add some Security Method to project</t>
   </si>
 </sst>
 </file>
@@ -441,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -575,6 +578,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1389,11 +1395,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2128105184"/>
-        <c:axId val="-2064024944"/>
+        <c:axId val="-2070394416"/>
+        <c:axId val="2125624080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2128105184"/>
+        <c:axId val="-2070394416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1431,7 +1437,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2064024944"/>
+        <c:crossAx val="2125624080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1439,7 +1445,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2064024944"/>
+        <c:axId val="2125624080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1482,7 +1488,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2128105184"/>
+        <c:crossAx val="-2070394416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1794,11 +1800,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2103911568"/>
-        <c:axId val="2101235440"/>
+        <c:axId val="-2098633584"/>
+        <c:axId val="-2098628400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2103911568"/>
+        <c:axId val="-2098633584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1820,7 +1826,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1837,7 +1842,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2101235440"/>
+        <c:crossAx val="-2098628400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1845,7 +1850,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2101235440"/>
+        <c:axId val="-2098628400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1867,7 +1872,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1889,14 +1893,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2103911568"/>
+        <c:crossAx val="-2098633584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2112,11 +2115,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2064631600"/>
-        <c:axId val="-2066932928"/>
+        <c:axId val="-2098616208"/>
+        <c:axId val="-2098611024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2064631600"/>
+        <c:axId val="-2098616208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2138,7 +2141,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2155,7 +2157,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2066932928"/>
+        <c:crossAx val="-2098611024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2163,7 +2165,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2066932928"/>
+        <c:axId val="-2098611024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2185,7 +2187,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2207,14 +2208,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2064631600"/>
+        <c:crossAx val="-2098616208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2520,11 +2520,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2064593552"/>
-        <c:axId val="-2066545984"/>
+        <c:axId val="-2098526144"/>
+        <c:axId val="-2098520960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2064593552"/>
+        <c:axId val="-2098526144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2563,7 +2563,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2066545984"/>
+        <c:crossAx val="-2098520960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2571,7 +2571,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2066545984"/>
+        <c:axId val="-2098520960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2615,7 +2615,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2064593552"/>
+        <c:crossAx val="-2098526144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2763,25 +2763,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>530.0</c:v>
+                  <c:v>380.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>280.0</c:v>
+                  <c:v>130.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300.0</c:v>
+                  <c:v>110.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300.0</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300.0</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>300.0</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>300.0</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2804,22 +2804,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>530.0</c:v>
+                  <c:v>420.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>442.0</c:v>
+                  <c:v>350.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>353.0</c:v>
+                  <c:v>280.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>265.0</c:v>
+                  <c:v>210.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>177.0</c:v>
+                  <c:v>140.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88.0</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.0</c:v>
@@ -2838,11 +2838,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2063661936"/>
-        <c:axId val="-2098736816"/>
+        <c:axId val="-2098488192"/>
+        <c:axId val="-2098483008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2063661936"/>
+        <c:axId val="-2098488192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2881,7 +2881,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2098736816"/>
+        <c:crossAx val="-2098483008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2889,7 +2889,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2098736816"/>
+        <c:axId val="-2098483008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2933,7 +2933,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2063661936"/>
+        <c:crossAx val="-2098488192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5263,12 +5263,12 @@
       </c>
     </row>
     <row r="39" spans="1:65" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="43"/>
@@ -5331,12 +5331,12 @@
       <c r="BM39" s="43"/>
     </row>
     <row r="40" spans="1:65" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="43"/>
@@ -7517,12 +7517,12 @@
       </c>
     </row>
     <row r="39" spans="1:65" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="43"/>
@@ -7585,12 +7585,12 @@
       <c r="BM39" s="43"/>
     </row>
     <row r="40" spans="1:65" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="43"/>
@@ -7912,8 +7912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8351,9 +8351,12 @@
       </c>
       <c r="D7" s="8">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="46">
         <v>10</v>
       </c>
-      <c r="E7" s="15"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
       <c r="BM7" s="17"/>
@@ -8371,9 +8374,12 @@
       </c>
       <c r="D8" s="8">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="H8" s="46">
         <v>40</v>
       </c>
-      <c r="E8" s="15"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
       <c r="BM8" s="17"/>
@@ -8383,57 +8389,65 @@
         <v>43</v>
       </c>
       <c r="B9" s="19">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="C9" s="7">
         <v>200</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E9" s="15">
         <v>170</v>
-      </c>
-      <c r="F9" s="46">
-        <v>-20</v>
       </c>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
       <c r="BM9" s="17"/>
     </row>
-    <row r="10" spans="1:65" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:65" ht="26" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" s="19">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="D10" s="8">
         <f>IF(C10&gt;B10,$C10-(SUM($E10:$BM10)),$B10-(SUM($E10:$BM10)))</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E10" s="15"/>
+      <c r="G10" s="46">
+        <v>40</v>
+      </c>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="BM10" s="17"/>
     </row>
     <row r="11" spans="1:65" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="19">
+        <v>10</v>
+      </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D11" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E11" s="15"/>
+      <c r="F11" s="46">
+        <v>10</v>
+      </c>
+      <c r="G11" s="47"/>
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
       <c r="BM11" s="17"/>
@@ -8844,15 +8858,15 @@
       </c>
       <c r="B35" s="26">
         <f t="shared" ref="B35:D35" si="2">SUM(B3:B34)</f>
-        <v>530</v>
+        <v>420</v>
       </c>
       <c r="C35" s="27">
         <f t="shared" si="2"/>
-        <v>530</v>
+        <v>380</v>
       </c>
       <c r="D35" s="27">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="E35" s="28">
         <f t="shared" ref="E35:BM35" si="3">SUM(E3:E19)</f>
@@ -8860,15 +8874,15 @@
       </c>
       <c r="F35" s="28">
         <f t="shared" si="3"/>
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="G35" s="28">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H35" s="28">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I35" s="28">
         <f t="shared" si="3"/>
@@ -9110,22 +9124,22 @@
       <c r="C36" s="31"/>
       <c r="D36" s="32"/>
       <c r="E36" s="33">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="F36" s="35">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G36" s="35">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="H36" s="35">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="I36" s="35">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J36" s="35">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="K36" s="35">
         <v>0</v>
@@ -9223,27 +9237,27 @@
       </c>
       <c r="D37" s="40">
         <f>B35</f>
-        <v>530</v>
+        <v>420</v>
       </c>
       <c r="E37" s="42">
         <f t="shared" ref="E37:BM37" si="4">D37-E36</f>
-        <v>442</v>
+        <v>350</v>
       </c>
       <c r="F37" s="42">
         <f t="shared" si="4"/>
-        <v>353</v>
+        <v>280</v>
       </c>
       <c r="G37" s="42">
         <f t="shared" si="4"/>
-        <v>265</v>
+        <v>210</v>
       </c>
       <c r="H37" s="42">
         <f t="shared" si="4"/>
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="I37" s="42">
         <f t="shared" si="4"/>
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="J37" s="42">
         <f t="shared" si="4"/>
@@ -9480,260 +9494,260 @@
       </c>
       <c r="D38" s="40">
         <f>C35</f>
-        <v>530</v>
+        <v>380</v>
       </c>
       <c r="E38" s="40">
         <f>$C$35-SUM(E$3:E$34)</f>
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="F38" s="40">
         <f t="shared" ref="F38:BM38" si="5">E38-SUM(F3:F34)</f>
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="G38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="H38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="I38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="J38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="K38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="L38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="N38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="O38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="P38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="Q38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="R38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="S38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="T38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="U38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="V38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="W38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="X38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="Y38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="Z38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="AA38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="AB38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="AC38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="AD38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="AE38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="AF38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="AG38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="AH38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="AI38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="AJ38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="AK38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="AL38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="AM38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="AN38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="AO38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="AP38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="AQ38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="AR38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="AS38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="AT38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="AU38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="AV38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="AW38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="AX38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="AY38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="AZ38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="BA38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="BB38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="BC38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="BD38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="BE38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="BF38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="BG38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="BH38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="BI38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="BJ38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="BK38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="BL38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="BM38" s="40">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:65" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="43"/>
@@ -9796,12 +9810,12 @@
       <c r="BM39" s="43"/>
     </row>
     <row r="40" spans="1:65" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="43"/>
